--- a/original/5-6_業務要件定義/6_業務要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DG-207_業務フロー(サンプル＆ガイド).xlsx
+++ b/original/5-6_業務要件定義/6_業務要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DG-207_業務フロー(サンプル＆ガイド).xlsx
@@ -18,7 +18,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">ガイド!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">サンプル!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621" calcMode="manual"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -1376,16 +1376,6 @@
     <phoneticPr fontId="12"/>
   </si>
   <si>
-    <t>TIS株式会社</t>
-    <rPh sb="1" eb="3">
-      <t>カブシキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カイシャ</t>
-    </rPh>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
     <t xml:space="preserve">この 作品 は </t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1575,6 +1565,13 @@
     </rPh>
     <rPh sb="49" eb="51">
       <t>チョウヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要件定義フレームワーク©2018 TIS INC. クリエイティブ・コモンズ・ライセンス（表示-継承 4.0 国際）</t>
+    <rPh sb="0" eb="1">
+      <t>ヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2058,62 +2055,14 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2140,6 +2089,54 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5278,9 +5275,7 @@
       <c r="G31" s="15"/>
       <c r="H31" s="12"/>
       <c r="J31" s="16"/>
-      <c r="R31" s="17" t="s">
-        <v>67</v>
-      </c>
+      <c r="R31" s="17"/>
     </row>
     <row r="32" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F32" s="12"/>
@@ -5320,20 +5315,24 @@
     </row>
     <row r="39" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E39" s="24" t="s">
         <v>68</v>
-      </c>
-      <c r="E39" s="24" t="s">
-        <v>69</v>
       </c>
       <c r="O39" s="21"/>
       <c r="P39" s="21"/>
       <c r="Q39" s="22"/>
       <c r="R39" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="S39" s="21"/>
     </row>
-    <row r="40" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
     <row r="41" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="42" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="43" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5808,7 +5807,7 @@
     <hyperlink ref="E39" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
 </file>
@@ -5915,7 +5914,7 @@
     <row r="21" spans="1:34" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="5"/>
       <c r="B21" s="25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:34" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -5943,265 +5942,265 @@
       <c r="B26" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="32" t="s">
+      <c r="C26" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="37" t="s">
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="37"/>
-      <c r="M26" s="37"/>
-      <c r="N26" s="37"/>
-      <c r="O26" s="37"/>
-      <c r="P26" s="37"/>
-      <c r="Q26" s="37"/>
-      <c r="R26" s="37"/>
-      <c r="S26" s="37"/>
-      <c r="T26" s="37"/>
-      <c r="U26" s="37"/>
-      <c r="V26" s="37"/>
-      <c r="W26" s="37"/>
-      <c r="X26" s="37" t="s">
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="26"/>
+      <c r="R26" s="26"/>
+      <c r="S26" s="26"/>
+      <c r="T26" s="26"/>
+      <c r="U26" s="26"/>
+      <c r="V26" s="26"/>
+      <c r="W26" s="26"/>
+      <c r="X26" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="Y26" s="37"/>
-      <c r="Z26" s="37"/>
-      <c r="AA26" s="37"/>
-      <c r="AB26" s="37" t="s">
+      <c r="Y26" s="26"/>
+      <c r="Z26" s="26"/>
+      <c r="AA26" s="26"/>
+      <c r="AB26" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="AC26" s="37"/>
-      <c r="AD26" s="37"/>
-      <c r="AE26" s="37"/>
-      <c r="AF26" s="37"/>
-      <c r="AG26" s="37"/>
-      <c r="AH26" s="37"/>
+      <c r="AC26" s="26"/>
+      <c r="AD26" s="26"/>
+      <c r="AE26" s="26"/>
+      <c r="AF26" s="26"/>
+      <c r="AG26" s="26"/>
+      <c r="AH26" s="26"/>
     </row>
     <row r="27" spans="1:34" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B27" s="7">
         <v>1</v>
       </c>
-      <c r="C27" s="39" t="s">
+      <c r="C27" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="42" t="s">
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="J27" s="42"/>
-      <c r="K27" s="42"/>
-      <c r="L27" s="42"/>
-      <c r="M27" s="42"/>
-      <c r="N27" s="42"/>
-      <c r="O27" s="42"/>
-      <c r="P27" s="42"/>
-      <c r="Q27" s="42"/>
-      <c r="R27" s="42"/>
-      <c r="S27" s="42"/>
-      <c r="T27" s="42"/>
-      <c r="U27" s="42"/>
-      <c r="V27" s="42"/>
-      <c r="W27" s="42"/>
-      <c r="X27" s="43" t="s">
+      <c r="J27" s="49"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="49"/>
+      <c r="M27" s="49"/>
+      <c r="N27" s="49"/>
+      <c r="O27" s="49"/>
+      <c r="P27" s="49"/>
+      <c r="Q27" s="49"/>
+      <c r="R27" s="49"/>
+      <c r="S27" s="49"/>
+      <c r="T27" s="49"/>
+      <c r="U27" s="49"/>
+      <c r="V27" s="49"/>
+      <c r="W27" s="49"/>
+      <c r="X27" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="Y27" s="43"/>
-      <c r="Z27" s="43"/>
-      <c r="AA27" s="43"/>
-      <c r="AB27" s="39" t="s">
+      <c r="Y27" s="50"/>
+      <c r="Z27" s="50"/>
+      <c r="AA27" s="50"/>
+      <c r="AB27" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="AC27" s="40"/>
-      <c r="AD27" s="40"/>
-      <c r="AE27" s="40"/>
-      <c r="AF27" s="40"/>
-      <c r="AG27" s="40"/>
-      <c r="AH27" s="41"/>
+      <c r="AC27" s="47"/>
+      <c r="AD27" s="47"/>
+      <c r="AE27" s="47"/>
+      <c r="AF27" s="47"/>
+      <c r="AG27" s="47"/>
+      <c r="AH27" s="48"/>
     </row>
     <row r="28" spans="1:34" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="4">
         <f>B27+1</f>
         <v>2</v>
       </c>
-      <c r="C28" s="26" t="s">
+      <c r="C28" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="35" t="s">
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="35"/>
-      <c r="M28" s="35"/>
-      <c r="N28" s="35"/>
-      <c r="O28" s="35"/>
-      <c r="P28" s="35"/>
-      <c r="Q28" s="35"/>
-      <c r="R28" s="35"/>
-      <c r="S28" s="35"/>
-      <c r="T28" s="35"/>
-      <c r="U28" s="35"/>
-      <c r="V28" s="35"/>
-      <c r="W28" s="35"/>
-      <c r="X28" s="38" t="s">
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="28"/>
+      <c r="O28" s="28"/>
+      <c r="P28" s="28"/>
+      <c r="Q28" s="28"/>
+      <c r="R28" s="28"/>
+      <c r="S28" s="28"/>
+      <c r="T28" s="28"/>
+      <c r="U28" s="28"/>
+      <c r="V28" s="28"/>
+      <c r="W28" s="28"/>
+      <c r="X28" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Y28" s="38"/>
-      <c r="Z28" s="38"/>
-      <c r="AA28" s="38"/>
-      <c r="AB28" s="26" t="s">
+      <c r="Y28" s="27"/>
+      <c r="Z28" s="27"/>
+      <c r="AA28" s="27"/>
+      <c r="AB28" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="AC28" s="27"/>
-      <c r="AD28" s="27"/>
-      <c r="AE28" s="27"/>
-      <c r="AF28" s="27"/>
-      <c r="AG28" s="27"/>
-      <c r="AH28" s="28"/>
+      <c r="AC28" s="40"/>
+      <c r="AD28" s="40"/>
+      <c r="AE28" s="40"/>
+      <c r="AF28" s="40"/>
+      <c r="AG28" s="40"/>
+      <c r="AH28" s="41"/>
     </row>
     <row r="29" spans="1:34" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="4">
         <f t="shared" ref="B29:B30" si="0">B28+1</f>
         <v>3</v>
       </c>
-      <c r="C29" s="26" t="s">
+      <c r="C29" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="35" t="s">
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="J29" s="35"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="35"/>
-      <c r="M29" s="35"/>
-      <c r="N29" s="35"/>
-      <c r="O29" s="35"/>
-      <c r="P29" s="35"/>
-      <c r="Q29" s="35"/>
-      <c r="R29" s="35"/>
-      <c r="S29" s="35"/>
-      <c r="T29" s="35"/>
-      <c r="U29" s="35"/>
-      <c r="V29" s="35"/>
-      <c r="W29" s="35"/>
-      <c r="X29" s="38" t="s">
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="28"/>
+      <c r="O29" s="28"/>
+      <c r="P29" s="28"/>
+      <c r="Q29" s="28"/>
+      <c r="R29" s="28"/>
+      <c r="S29" s="28"/>
+      <c r="T29" s="28"/>
+      <c r="U29" s="28"/>
+      <c r="V29" s="28"/>
+      <c r="W29" s="28"/>
+      <c r="X29" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="Y29" s="38"/>
-      <c r="Z29" s="38"/>
-      <c r="AA29" s="38"/>
-      <c r="AB29" s="38"/>
-      <c r="AC29" s="38"/>
-      <c r="AD29" s="38"/>
-      <c r="AE29" s="38"/>
-      <c r="AF29" s="38"/>
-      <c r="AG29" s="38"/>
-      <c r="AH29" s="38"/>
+      <c r="Y29" s="27"/>
+      <c r="Z29" s="27"/>
+      <c r="AA29" s="27"/>
+      <c r="AB29" s="27"/>
+      <c r="AC29" s="27"/>
+      <c r="AD29" s="27"/>
+      <c r="AE29" s="27"/>
+      <c r="AF29" s="27"/>
+      <c r="AG29" s="27"/>
+      <c r="AH29" s="27"/>
     </row>
     <row r="30" spans="1:34" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C30" s="26" t="s">
+      <c r="C30" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="35" t="s">
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="J30" s="35"/>
-      <c r="K30" s="35"/>
-      <c r="L30" s="35"/>
-      <c r="M30" s="35"/>
-      <c r="N30" s="35"/>
-      <c r="O30" s="35"/>
-      <c r="P30" s="35"/>
-      <c r="Q30" s="35"/>
-      <c r="R30" s="35"/>
-      <c r="S30" s="35"/>
-      <c r="T30" s="35"/>
-      <c r="U30" s="35"/>
-      <c r="V30" s="35"/>
-      <c r="W30" s="35"/>
-      <c r="X30" s="38"/>
-      <c r="Y30" s="38"/>
-      <c r="Z30" s="38"/>
-      <c r="AA30" s="38"/>
-      <c r="AB30" s="38"/>
-      <c r="AC30" s="38"/>
-      <c r="AD30" s="38"/>
-      <c r="AE30" s="38"/>
-      <c r="AF30" s="38"/>
-      <c r="AG30" s="38"/>
-      <c r="AH30" s="38"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="28"/>
+      <c r="M30" s="28"/>
+      <c r="N30" s="28"/>
+      <c r="O30" s="28"/>
+      <c r="P30" s="28"/>
+      <c r="Q30" s="28"/>
+      <c r="R30" s="28"/>
+      <c r="S30" s="28"/>
+      <c r="T30" s="28"/>
+      <c r="U30" s="28"/>
+      <c r="V30" s="28"/>
+      <c r="W30" s="28"/>
+      <c r="X30" s="27"/>
+      <c r="Y30" s="27"/>
+      <c r="Z30" s="27"/>
+      <c r="AA30" s="27"/>
+      <c r="AB30" s="27"/>
+      <c r="AC30" s="27"/>
+      <c r="AD30" s="27"/>
+      <c r="AE30" s="27"/>
+      <c r="AF30" s="27"/>
+      <c r="AG30" s="27"/>
+      <c r="AH30" s="27"/>
     </row>
     <row r="31" spans="1:34" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="4">
         <f t="shared" ref="B31" si="1">B30+1</f>
         <v>5</v>
       </c>
-      <c r="C31" s="26" t="s">
+      <c r="C31" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="35" t="s">
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="J31" s="35"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="35"/>
-      <c r="M31" s="35"/>
-      <c r="N31" s="35"/>
-      <c r="O31" s="35"/>
-      <c r="P31" s="35"/>
-      <c r="Q31" s="35"/>
-      <c r="R31" s="35"/>
-      <c r="S31" s="35"/>
-      <c r="T31" s="35"/>
-      <c r="U31" s="35"/>
-      <c r="V31" s="35"/>
-      <c r="W31" s="35"/>
-      <c r="X31" s="38"/>
-      <c r="Y31" s="38"/>
-      <c r="Z31" s="38"/>
-      <c r="AA31" s="38"/>
-      <c r="AB31" s="38"/>
-      <c r="AC31" s="38"/>
-      <c r="AD31" s="38"/>
-      <c r="AE31" s="38"/>
-      <c r="AF31" s="38"/>
-      <c r="AG31" s="38"/>
-      <c r="AH31" s="38"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="28"/>
+      <c r="M31" s="28"/>
+      <c r="N31" s="28"/>
+      <c r="O31" s="28"/>
+      <c r="P31" s="28"/>
+      <c r="Q31" s="28"/>
+      <c r="R31" s="28"/>
+      <c r="S31" s="28"/>
+      <c r="T31" s="28"/>
+      <c r="U31" s="28"/>
+      <c r="V31" s="28"/>
+      <c r="W31" s="28"/>
+      <c r="X31" s="27"/>
+      <c r="Y31" s="27"/>
+      <c r="Z31" s="27"/>
+      <c r="AA31" s="27"/>
+      <c r="AB31" s="27"/>
+      <c r="AC31" s="27"/>
+      <c r="AD31" s="27"/>
+      <c r="AE31" s="27"/>
+      <c r="AF31" s="27"/>
+      <c r="AG31" s="27"/>
+      <c r="AH31" s="27"/>
     </row>
     <row r="32" spans="1:34" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="3"/>
@@ -6210,512 +6209,512 @@
       <c r="B33" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="32" t="s">
+      <c r="C33" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="37" t="s">
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="J33" s="37"/>
-      <c r="K33" s="37"/>
-      <c r="L33" s="37"/>
-      <c r="M33" s="37"/>
-      <c r="N33" s="37"/>
-      <c r="O33" s="37"/>
-      <c r="P33" s="37"/>
-      <c r="Q33" s="37"/>
-      <c r="R33" s="37"/>
-      <c r="S33" s="37"/>
-      <c r="T33" s="37"/>
-      <c r="U33" s="37"/>
-      <c r="V33" s="37"/>
-      <c r="W33" s="37"/>
-      <c r="X33" s="37" t="s">
+      <c r="J33" s="26"/>
+      <c r="K33" s="26"/>
+      <c r="L33" s="26"/>
+      <c r="M33" s="26"/>
+      <c r="N33" s="26"/>
+      <c r="O33" s="26"/>
+      <c r="P33" s="26"/>
+      <c r="Q33" s="26"/>
+      <c r="R33" s="26"/>
+      <c r="S33" s="26"/>
+      <c r="T33" s="26"/>
+      <c r="U33" s="26"/>
+      <c r="V33" s="26"/>
+      <c r="W33" s="26"/>
+      <c r="X33" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="Y33" s="37"/>
-      <c r="Z33" s="37"/>
-      <c r="AA33" s="37"/>
-      <c r="AB33" s="37" t="s">
+      <c r="Y33" s="26"/>
+      <c r="Z33" s="26"/>
+      <c r="AA33" s="26"/>
+      <c r="AB33" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="AC33" s="37"/>
-      <c r="AD33" s="37"/>
-      <c r="AE33" s="37"/>
-      <c r="AF33" s="37"/>
-      <c r="AG33" s="37"/>
-      <c r="AH33" s="37"/>
+      <c r="AC33" s="26"/>
+      <c r="AD33" s="26"/>
+      <c r="AE33" s="26"/>
+      <c r="AF33" s="26"/>
+      <c r="AG33" s="26"/>
+      <c r="AH33" s="26"/>
     </row>
     <row r="34" spans="2:34" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B34" s="4">
         <f>B31+1</f>
         <v>6</v>
       </c>
-      <c r="C34" s="26" t="s">
+      <c r="C34" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="35" t="s">
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="J34" s="35"/>
-      <c r="K34" s="35"/>
-      <c r="L34" s="35"/>
-      <c r="M34" s="35"/>
-      <c r="N34" s="35"/>
-      <c r="O34" s="35"/>
-      <c r="P34" s="35"/>
-      <c r="Q34" s="35"/>
-      <c r="R34" s="35"/>
-      <c r="S34" s="35"/>
-      <c r="T34" s="35"/>
-      <c r="U34" s="35"/>
-      <c r="V34" s="35"/>
-      <c r="W34" s="35"/>
-      <c r="X34" s="38"/>
-      <c r="Y34" s="38"/>
-      <c r="Z34" s="38"/>
-      <c r="AA34" s="38"/>
-      <c r="AB34" s="26" t="s">
+      <c r="J34" s="28"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="28"/>
+      <c r="M34" s="28"/>
+      <c r="N34" s="28"/>
+      <c r="O34" s="28"/>
+      <c r="P34" s="28"/>
+      <c r="Q34" s="28"/>
+      <c r="R34" s="28"/>
+      <c r="S34" s="28"/>
+      <c r="T34" s="28"/>
+      <c r="U34" s="28"/>
+      <c r="V34" s="28"/>
+      <c r="W34" s="28"/>
+      <c r="X34" s="27"/>
+      <c r="Y34" s="27"/>
+      <c r="Z34" s="27"/>
+      <c r="AA34" s="27"/>
+      <c r="AB34" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="AC34" s="27"/>
-      <c r="AD34" s="27"/>
-      <c r="AE34" s="27"/>
-      <c r="AF34" s="27"/>
-      <c r="AG34" s="27"/>
-      <c r="AH34" s="28"/>
+      <c r="AC34" s="40"/>
+      <c r="AD34" s="40"/>
+      <c r="AE34" s="40"/>
+      <c r="AF34" s="40"/>
+      <c r="AG34" s="40"/>
+      <c r="AH34" s="41"/>
     </row>
     <row r="35" spans="2:34" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="4">
         <f>B34+1</f>
         <v>7</v>
       </c>
-      <c r="C35" s="29" t="s">
+      <c r="C35" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" s="52"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="53"/>
+      <c r="I35" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="J35" s="36"/>
-      <c r="K35" s="36"/>
-      <c r="L35" s="36"/>
-      <c r="M35" s="36"/>
-      <c r="N35" s="36"/>
-      <c r="O35" s="36"/>
-      <c r="P35" s="36"/>
-      <c r="Q35" s="36"/>
-      <c r="R35" s="36"/>
-      <c r="S35" s="36"/>
-      <c r="T35" s="36"/>
-      <c r="U35" s="36"/>
-      <c r="V35" s="36"/>
-      <c r="W35" s="36"/>
-      <c r="X35" s="38"/>
-      <c r="Y35" s="38"/>
-      <c r="Z35" s="38"/>
-      <c r="AA35" s="38"/>
-      <c r="AB35" s="45" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC35" s="46"/>
-      <c r="AD35" s="46"/>
-      <c r="AE35" s="46"/>
-      <c r="AF35" s="46"/>
-      <c r="AG35" s="46"/>
-      <c r="AH35" s="47"/>
+      <c r="J35" s="38"/>
+      <c r="K35" s="38"/>
+      <c r="L35" s="38"/>
+      <c r="M35" s="38"/>
+      <c r="N35" s="38"/>
+      <c r="O35" s="38"/>
+      <c r="P35" s="38"/>
+      <c r="Q35" s="38"/>
+      <c r="R35" s="38"/>
+      <c r="S35" s="38"/>
+      <c r="T35" s="38"/>
+      <c r="U35" s="38"/>
+      <c r="V35" s="38"/>
+      <c r="W35" s="38"/>
+      <c r="X35" s="27"/>
+      <c r="Y35" s="27"/>
+      <c r="Z35" s="27"/>
+      <c r="AA35" s="27"/>
+      <c r="AB35" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC35" s="30"/>
+      <c r="AD35" s="30"/>
+      <c r="AE35" s="30"/>
+      <c r="AF35" s="30"/>
+      <c r="AG35" s="30"/>
+      <c r="AH35" s="31"/>
     </row>
     <row r="36" spans="2:34" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="4">
         <f>B35+1</f>
         <v>8</v>
       </c>
-      <c r="C36" s="29" t="s">
+      <c r="C36" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36" s="52"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="52"/>
+      <c r="H36" s="53"/>
+      <c r="I36" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="J36" s="36"/>
-      <c r="K36" s="36"/>
-      <c r="L36" s="36"/>
-      <c r="M36" s="36"/>
-      <c r="N36" s="36"/>
-      <c r="O36" s="36"/>
-      <c r="P36" s="36"/>
-      <c r="Q36" s="36"/>
-      <c r="R36" s="36"/>
-      <c r="S36" s="36"/>
-      <c r="T36" s="36"/>
-      <c r="U36" s="36"/>
-      <c r="V36" s="36"/>
-      <c r="W36" s="36"/>
-      <c r="X36" s="38"/>
-      <c r="Y36" s="38"/>
-      <c r="Z36" s="38"/>
-      <c r="AA36" s="38"/>
-      <c r="AB36" s="48"/>
-      <c r="AC36" s="49"/>
-      <c r="AD36" s="49"/>
-      <c r="AE36" s="49"/>
-      <c r="AF36" s="49"/>
-      <c r="AG36" s="49"/>
-      <c r="AH36" s="50"/>
+      <c r="J36" s="38"/>
+      <c r="K36" s="38"/>
+      <c r="L36" s="38"/>
+      <c r="M36" s="38"/>
+      <c r="N36" s="38"/>
+      <c r="O36" s="38"/>
+      <c r="P36" s="38"/>
+      <c r="Q36" s="38"/>
+      <c r="R36" s="38"/>
+      <c r="S36" s="38"/>
+      <c r="T36" s="38"/>
+      <c r="U36" s="38"/>
+      <c r="V36" s="38"/>
+      <c r="W36" s="38"/>
+      <c r="X36" s="27"/>
+      <c r="Y36" s="27"/>
+      <c r="Z36" s="27"/>
+      <c r="AA36" s="27"/>
+      <c r="AB36" s="32"/>
+      <c r="AC36" s="33"/>
+      <c r="AD36" s="33"/>
+      <c r="AE36" s="33"/>
+      <c r="AF36" s="33"/>
+      <c r="AG36" s="33"/>
+      <c r="AH36" s="34"/>
     </row>
     <row r="37" spans="2:34" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="4">
         <f>B36+1</f>
         <v>9</v>
       </c>
-      <c r="C37" s="26" t="s">
+      <c r="C37" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="35" t="s">
+      <c r="D37" s="40"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="J37" s="35"/>
-      <c r="K37" s="35"/>
-      <c r="L37" s="35"/>
-      <c r="M37" s="35"/>
-      <c r="N37" s="35"/>
-      <c r="O37" s="35"/>
-      <c r="P37" s="35"/>
-      <c r="Q37" s="35"/>
-      <c r="R37" s="35"/>
-      <c r="S37" s="35"/>
-      <c r="T37" s="35"/>
-      <c r="U37" s="35"/>
-      <c r="V37" s="35"/>
-      <c r="W37" s="35"/>
-      <c r="X37" s="38"/>
-      <c r="Y37" s="38"/>
-      <c r="Z37" s="38"/>
-      <c r="AA37" s="38"/>
-      <c r="AB37" s="48"/>
-      <c r="AC37" s="49"/>
-      <c r="AD37" s="49"/>
-      <c r="AE37" s="49"/>
-      <c r="AF37" s="49"/>
-      <c r="AG37" s="49"/>
-      <c r="AH37" s="50"/>
+      <c r="J37" s="28"/>
+      <c r="K37" s="28"/>
+      <c r="L37" s="28"/>
+      <c r="M37" s="28"/>
+      <c r="N37" s="28"/>
+      <c r="O37" s="28"/>
+      <c r="P37" s="28"/>
+      <c r="Q37" s="28"/>
+      <c r="R37" s="28"/>
+      <c r="S37" s="28"/>
+      <c r="T37" s="28"/>
+      <c r="U37" s="28"/>
+      <c r="V37" s="28"/>
+      <c r="W37" s="28"/>
+      <c r="X37" s="27"/>
+      <c r="Y37" s="27"/>
+      <c r="Z37" s="27"/>
+      <c r="AA37" s="27"/>
+      <c r="AB37" s="32"/>
+      <c r="AC37" s="33"/>
+      <c r="AD37" s="33"/>
+      <c r="AE37" s="33"/>
+      <c r="AF37" s="33"/>
+      <c r="AG37" s="33"/>
+      <c r="AH37" s="34"/>
     </row>
     <row r="38" spans="2:34" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="4">
         <f>B37+1</f>
         <v>10</v>
       </c>
-      <c r="C38" s="26" t="s">
+      <c r="C38" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="35" t="s">
+      <c r="D38" s="40"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="40"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="J38" s="35"/>
-      <c r="K38" s="35"/>
-      <c r="L38" s="35"/>
-      <c r="M38" s="35"/>
-      <c r="N38" s="35"/>
-      <c r="O38" s="35"/>
-      <c r="P38" s="35"/>
-      <c r="Q38" s="35"/>
-      <c r="R38" s="35"/>
-      <c r="S38" s="35"/>
-      <c r="T38" s="35"/>
-      <c r="U38" s="35"/>
-      <c r="V38" s="35"/>
-      <c r="W38" s="35"/>
-      <c r="X38" s="38"/>
-      <c r="Y38" s="38"/>
-      <c r="Z38" s="38"/>
-      <c r="AA38" s="38"/>
-      <c r="AB38" s="51"/>
-      <c r="AC38" s="52"/>
-      <c r="AD38" s="52"/>
-      <c r="AE38" s="52"/>
-      <c r="AF38" s="52"/>
-      <c r="AG38" s="52"/>
-      <c r="AH38" s="53"/>
+      <c r="J38" s="28"/>
+      <c r="K38" s="28"/>
+      <c r="L38" s="28"/>
+      <c r="M38" s="28"/>
+      <c r="N38" s="28"/>
+      <c r="O38" s="28"/>
+      <c r="P38" s="28"/>
+      <c r="Q38" s="28"/>
+      <c r="R38" s="28"/>
+      <c r="S38" s="28"/>
+      <c r="T38" s="28"/>
+      <c r="U38" s="28"/>
+      <c r="V38" s="28"/>
+      <c r="W38" s="28"/>
+      <c r="X38" s="27"/>
+      <c r="Y38" s="27"/>
+      <c r="Z38" s="27"/>
+      <c r="AA38" s="27"/>
+      <c r="AB38" s="35"/>
+      <c r="AC38" s="36"/>
+      <c r="AD38" s="36"/>
+      <c r="AE38" s="36"/>
+      <c r="AF38" s="36"/>
+      <c r="AG38" s="36"/>
+      <c r="AH38" s="37"/>
     </row>
     <row r="39" spans="2:34" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="4">
         <f>B38+1</f>
         <v>11</v>
       </c>
-      <c r="C39" s="26" t="s">
+      <c r="C39" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="J39" s="36"/>
-      <c r="K39" s="36"/>
-      <c r="L39" s="36"/>
-      <c r="M39" s="36"/>
-      <c r="N39" s="36"/>
-      <c r="O39" s="36"/>
-      <c r="P39" s="36"/>
-      <c r="Q39" s="36"/>
-      <c r="R39" s="36"/>
-      <c r="S39" s="36"/>
-      <c r="T39" s="36"/>
-      <c r="U39" s="36"/>
-      <c r="V39" s="36"/>
-      <c r="W39" s="36"/>
-      <c r="X39" s="38"/>
-      <c r="Y39" s="38"/>
-      <c r="Z39" s="38"/>
-      <c r="AA39" s="38"/>
-      <c r="AB39" s="38"/>
-      <c r="AC39" s="38"/>
-      <c r="AD39" s="38"/>
-      <c r="AE39" s="38"/>
-      <c r="AF39" s="38"/>
-      <c r="AG39" s="38"/>
-      <c r="AH39" s="38"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="40"/>
+      <c r="F39" s="40"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="J39" s="38"/>
+      <c r="K39" s="38"/>
+      <c r="L39" s="38"/>
+      <c r="M39" s="38"/>
+      <c r="N39" s="38"/>
+      <c r="O39" s="38"/>
+      <c r="P39" s="38"/>
+      <c r="Q39" s="38"/>
+      <c r="R39" s="38"/>
+      <c r="S39" s="38"/>
+      <c r="T39" s="38"/>
+      <c r="U39" s="38"/>
+      <c r="V39" s="38"/>
+      <c r="W39" s="38"/>
+      <c r="X39" s="27"/>
+      <c r="Y39" s="27"/>
+      <c r="Z39" s="27"/>
+      <c r="AA39" s="27"/>
+      <c r="AB39" s="27"/>
+      <c r="AC39" s="27"/>
+      <c r="AD39" s="27"/>
+      <c r="AE39" s="27"/>
+      <c r="AF39" s="27"/>
+      <c r="AG39" s="27"/>
+      <c r="AH39" s="27"/>
     </row>
     <row r="40" spans="2:34" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="4">
         <f t="shared" ref="B40:B42" si="2">B39+1</f>
         <v>12</v>
       </c>
-      <c r="C40" s="26" t="s">
+      <c r="C40" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="28"/>
-      <c r="I40" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="J40" s="36"/>
-      <c r="K40" s="36"/>
-      <c r="L40" s="36"/>
-      <c r="M40" s="36"/>
-      <c r="N40" s="36"/>
-      <c r="O40" s="36"/>
-      <c r="P40" s="36"/>
-      <c r="Q40" s="36"/>
-      <c r="R40" s="36"/>
-      <c r="S40" s="36"/>
-      <c r="T40" s="36"/>
-      <c r="U40" s="36"/>
-      <c r="V40" s="36"/>
-      <c r="W40" s="36"/>
-      <c r="X40" s="38"/>
-      <c r="Y40" s="38"/>
-      <c r="Z40" s="38"/>
-      <c r="AA40" s="38"/>
-      <c r="AB40" s="38"/>
-      <c r="AC40" s="38"/>
-      <c r="AD40" s="38"/>
-      <c r="AE40" s="38"/>
-      <c r="AF40" s="38"/>
-      <c r="AG40" s="38"/>
-      <c r="AH40" s="38"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="J40" s="38"/>
+      <c r="K40" s="38"/>
+      <c r="L40" s="38"/>
+      <c r="M40" s="38"/>
+      <c r="N40" s="38"/>
+      <c r="O40" s="38"/>
+      <c r="P40" s="38"/>
+      <c r="Q40" s="38"/>
+      <c r="R40" s="38"/>
+      <c r="S40" s="38"/>
+      <c r="T40" s="38"/>
+      <c r="U40" s="38"/>
+      <c r="V40" s="38"/>
+      <c r="W40" s="38"/>
+      <c r="X40" s="27"/>
+      <c r="Y40" s="27"/>
+      <c r="Z40" s="27"/>
+      <c r="AA40" s="27"/>
+      <c r="AB40" s="27"/>
+      <c r="AC40" s="27"/>
+      <c r="AD40" s="27"/>
+      <c r="AE40" s="27"/>
+      <c r="AF40" s="27"/>
+      <c r="AG40" s="27"/>
+      <c r="AH40" s="27"/>
     </row>
     <row r="41" spans="2:34" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="4">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="C41" s="26" t="s">
+      <c r="C41" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="35" t="s">
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="J41" s="35"/>
-      <c r="K41" s="35"/>
-      <c r="L41" s="35"/>
-      <c r="M41" s="35"/>
-      <c r="N41" s="35"/>
-      <c r="O41" s="35"/>
-      <c r="P41" s="35"/>
-      <c r="Q41" s="35"/>
-      <c r="R41" s="35"/>
-      <c r="S41" s="35"/>
-      <c r="T41" s="35"/>
-      <c r="U41" s="35"/>
-      <c r="V41" s="35"/>
-      <c r="W41" s="35"/>
-      <c r="X41" s="38"/>
-      <c r="Y41" s="38"/>
-      <c r="Z41" s="38"/>
-      <c r="AA41" s="38"/>
-      <c r="AB41" s="38"/>
-      <c r="AC41" s="38"/>
-      <c r="AD41" s="38"/>
-      <c r="AE41" s="38"/>
-      <c r="AF41" s="38"/>
-      <c r="AG41" s="38"/>
-      <c r="AH41" s="38"/>
+      <c r="J41" s="28"/>
+      <c r="K41" s="28"/>
+      <c r="L41" s="28"/>
+      <c r="M41" s="28"/>
+      <c r="N41" s="28"/>
+      <c r="O41" s="28"/>
+      <c r="P41" s="28"/>
+      <c r="Q41" s="28"/>
+      <c r="R41" s="28"/>
+      <c r="S41" s="28"/>
+      <c r="T41" s="28"/>
+      <c r="U41" s="28"/>
+      <c r="V41" s="28"/>
+      <c r="W41" s="28"/>
+      <c r="X41" s="27"/>
+      <c r="Y41" s="27"/>
+      <c r="Z41" s="27"/>
+      <c r="AA41" s="27"/>
+      <c r="AB41" s="27"/>
+      <c r="AC41" s="27"/>
+      <c r="AD41" s="27"/>
+      <c r="AE41" s="27"/>
+      <c r="AF41" s="27"/>
+      <c r="AG41" s="27"/>
+      <c r="AH41" s="27"/>
     </row>
     <row r="42" spans="2:34" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="4">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="C42" s="26" t="s">
+      <c r="C42" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="28"/>
-      <c r="I42" s="35" t="s">
+      <c r="D42" s="40"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="40"/>
+      <c r="G42" s="40"/>
+      <c r="H42" s="41"/>
+      <c r="I42" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="J42" s="35"/>
-      <c r="K42" s="35"/>
-      <c r="L42" s="35"/>
-      <c r="M42" s="35"/>
-      <c r="N42" s="35"/>
-      <c r="O42" s="35"/>
-      <c r="P42" s="35"/>
-      <c r="Q42" s="35"/>
-      <c r="R42" s="35"/>
-      <c r="S42" s="35"/>
-      <c r="T42" s="35"/>
-      <c r="U42" s="35"/>
-      <c r="V42" s="35"/>
-      <c r="W42" s="35"/>
-      <c r="X42" s="38"/>
-      <c r="Y42" s="38"/>
-      <c r="Z42" s="38"/>
-      <c r="AA42" s="38"/>
-      <c r="AB42" s="38"/>
-      <c r="AC42" s="38"/>
-      <c r="AD42" s="38"/>
-      <c r="AE42" s="38"/>
-      <c r="AF42" s="38"/>
-      <c r="AG42" s="38"/>
-      <c r="AH42" s="38"/>
+      <c r="J42" s="28"/>
+      <c r="K42" s="28"/>
+      <c r="L42" s="28"/>
+      <c r="M42" s="28"/>
+      <c r="N42" s="28"/>
+      <c r="O42" s="28"/>
+      <c r="P42" s="28"/>
+      <c r="Q42" s="28"/>
+      <c r="R42" s="28"/>
+      <c r="S42" s="28"/>
+      <c r="T42" s="28"/>
+      <c r="U42" s="28"/>
+      <c r="V42" s="28"/>
+      <c r="W42" s="28"/>
+      <c r="X42" s="27"/>
+      <c r="Y42" s="27"/>
+      <c r="Z42" s="27"/>
+      <c r="AA42" s="27"/>
+      <c r="AB42" s="27"/>
+      <c r="AC42" s="27"/>
+      <c r="AD42" s="27"/>
+      <c r="AE42" s="27"/>
+      <c r="AF42" s="27"/>
+      <c r="AG42" s="27"/>
+      <c r="AH42" s="27"/>
     </row>
     <row r="43" spans="2:34" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="4">
         <f>B42+1</f>
         <v>15</v>
       </c>
-      <c r="C43" s="26" t="s">
+      <c r="C43" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="28"/>
-      <c r="I43" s="35" t="s">
+      <c r="D43" s="40"/>
+      <c r="E43" s="40"/>
+      <c r="F43" s="40"/>
+      <c r="G43" s="40"/>
+      <c r="H43" s="41"/>
+      <c r="I43" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="J43" s="35"/>
-      <c r="K43" s="35"/>
-      <c r="L43" s="35"/>
-      <c r="M43" s="35"/>
-      <c r="N43" s="35"/>
-      <c r="O43" s="35"/>
-      <c r="P43" s="35"/>
-      <c r="Q43" s="35"/>
-      <c r="R43" s="35"/>
-      <c r="S43" s="35"/>
-      <c r="T43" s="35"/>
-      <c r="U43" s="35"/>
-      <c r="V43" s="35"/>
-      <c r="W43" s="35"/>
-      <c r="X43" s="38"/>
-      <c r="Y43" s="38"/>
-      <c r="Z43" s="38"/>
-      <c r="AA43" s="38"/>
-      <c r="AB43" s="38"/>
-      <c r="AC43" s="38"/>
-      <c r="AD43" s="38"/>
-      <c r="AE43" s="38"/>
-      <c r="AF43" s="38"/>
-      <c r="AG43" s="38"/>
-      <c r="AH43" s="38"/>
+      <c r="J43" s="28"/>
+      <c r="K43" s="28"/>
+      <c r="L43" s="28"/>
+      <c r="M43" s="28"/>
+      <c r="N43" s="28"/>
+      <c r="O43" s="28"/>
+      <c r="P43" s="28"/>
+      <c r="Q43" s="28"/>
+      <c r="R43" s="28"/>
+      <c r="S43" s="28"/>
+      <c r="T43" s="28"/>
+      <c r="U43" s="28"/>
+      <c r="V43" s="28"/>
+      <c r="W43" s="28"/>
+      <c r="X43" s="27"/>
+      <c r="Y43" s="27"/>
+      <c r="Z43" s="27"/>
+      <c r="AA43" s="27"/>
+      <c r="AB43" s="27"/>
+      <c r="AC43" s="27"/>
+      <c r="AD43" s="27"/>
+      <c r="AE43" s="27"/>
+      <c r="AF43" s="27"/>
+      <c r="AG43" s="27"/>
+      <c r="AH43" s="27"/>
     </row>
     <row r="44" spans="2:34" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="4">
         <f>B43+1</f>
         <v>16</v>
       </c>
-      <c r="C44" s="26" t="s">
+      <c r="C44" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="D44" s="27"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="27"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="35" t="s">
+      <c r="D44" s="40"/>
+      <c r="E44" s="40"/>
+      <c r="F44" s="40"/>
+      <c r="G44" s="40"/>
+      <c r="H44" s="41"/>
+      <c r="I44" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="J44" s="35"/>
-      <c r="K44" s="35"/>
-      <c r="L44" s="35"/>
-      <c r="M44" s="35"/>
-      <c r="N44" s="35"/>
-      <c r="O44" s="35"/>
-      <c r="P44" s="35"/>
-      <c r="Q44" s="35"/>
-      <c r="R44" s="35"/>
-      <c r="S44" s="35"/>
-      <c r="T44" s="35"/>
-      <c r="U44" s="35"/>
-      <c r="V44" s="35"/>
-      <c r="W44" s="35"/>
-      <c r="X44" s="38"/>
-      <c r="Y44" s="38"/>
-      <c r="Z44" s="38"/>
-      <c r="AA44" s="38"/>
-      <c r="AB44" s="38"/>
-      <c r="AC44" s="38"/>
-      <c r="AD44" s="38"/>
-      <c r="AE44" s="38"/>
-      <c r="AF44" s="38"/>
-      <c r="AG44" s="38"/>
-      <c r="AH44" s="38"/>
+      <c r="J44" s="28"/>
+      <c r="K44" s="28"/>
+      <c r="L44" s="28"/>
+      <c r="M44" s="28"/>
+      <c r="N44" s="28"/>
+      <c r="O44" s="28"/>
+      <c r="P44" s="28"/>
+      <c r="Q44" s="28"/>
+      <c r="R44" s="28"/>
+      <c r="S44" s="28"/>
+      <c r="T44" s="28"/>
+      <c r="U44" s="28"/>
+      <c r="V44" s="28"/>
+      <c r="W44" s="28"/>
+      <c r="X44" s="27"/>
+      <c r="Y44" s="27"/>
+      <c r="Z44" s="27"/>
+      <c r="AA44" s="27"/>
+      <c r="AB44" s="27"/>
+      <c r="AC44" s="27"/>
+      <c r="AD44" s="27"/>
+      <c r="AE44" s="27"/>
+      <c r="AF44" s="27"/>
+      <c r="AG44" s="27"/>
+      <c r="AH44" s="27"/>
     </row>
     <row r="45" spans="2:34" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="3"/>
@@ -6727,214 +6726,214 @@
       <c r="B47" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C47" s="32" t="s">
+      <c r="C47" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="D47" s="33"/>
-      <c r="E47" s="33"/>
-      <c r="F47" s="33"/>
-      <c r="G47" s="33"/>
-      <c r="H47" s="34"/>
-      <c r="I47" s="37" t="s">
+      <c r="D47" s="44"/>
+      <c r="E47" s="44"/>
+      <c r="F47" s="44"/>
+      <c r="G47" s="44"/>
+      <c r="H47" s="45"/>
+      <c r="I47" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="J47" s="37"/>
-      <c r="K47" s="37"/>
-      <c r="L47" s="37"/>
-      <c r="M47" s="37"/>
-      <c r="N47" s="37"/>
-      <c r="O47" s="37"/>
-      <c r="P47" s="37"/>
-      <c r="Q47" s="37"/>
-      <c r="R47" s="37"/>
-      <c r="S47" s="37"/>
-      <c r="T47" s="37"/>
-      <c r="U47" s="37"/>
-      <c r="V47" s="37"/>
-      <c r="W47" s="37"/>
-      <c r="X47" s="37" t="s">
+      <c r="J47" s="26"/>
+      <c r="K47" s="26"/>
+      <c r="L47" s="26"/>
+      <c r="M47" s="26"/>
+      <c r="N47" s="26"/>
+      <c r="O47" s="26"/>
+      <c r="P47" s="26"/>
+      <c r="Q47" s="26"/>
+      <c r="R47" s="26"/>
+      <c r="S47" s="26"/>
+      <c r="T47" s="26"/>
+      <c r="U47" s="26"/>
+      <c r="V47" s="26"/>
+      <c r="W47" s="26"/>
+      <c r="X47" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="Y47" s="37"/>
-      <c r="Z47" s="37"/>
-      <c r="AA47" s="37"/>
-      <c r="AB47" s="37" t="s">
+      <c r="Y47" s="26"/>
+      <c r="Z47" s="26"/>
+      <c r="AA47" s="26"/>
+      <c r="AB47" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="AC47" s="37"/>
-      <c r="AD47" s="37"/>
-      <c r="AE47" s="37"/>
-      <c r="AF47" s="37"/>
-      <c r="AG47" s="37"/>
-      <c r="AH47" s="37"/>
+      <c r="AC47" s="26"/>
+      <c r="AD47" s="26"/>
+      <c r="AE47" s="26"/>
+      <c r="AF47" s="26"/>
+      <c r="AG47" s="26"/>
+      <c r="AH47" s="26"/>
     </row>
     <row r="48" spans="2:34" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B48" s="4">
         <f>B44+1</f>
         <v>17</v>
       </c>
-      <c r="C48" s="26" t="s">
+      <c r="C48" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="D48" s="27"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
-      <c r="H48" s="28"/>
-      <c r="I48" s="35" t="s">
+      <c r="D48" s="40"/>
+      <c r="E48" s="40"/>
+      <c r="F48" s="40"/>
+      <c r="G48" s="40"/>
+      <c r="H48" s="41"/>
+      <c r="I48" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="J48" s="35"/>
-      <c r="K48" s="35"/>
-      <c r="L48" s="35"/>
-      <c r="M48" s="35"/>
-      <c r="N48" s="35"/>
-      <c r="O48" s="35"/>
-      <c r="P48" s="35"/>
-      <c r="Q48" s="35"/>
-      <c r="R48" s="35"/>
-      <c r="S48" s="35"/>
-      <c r="T48" s="35"/>
-      <c r="U48" s="35"/>
-      <c r="V48" s="35"/>
-      <c r="W48" s="35"/>
-      <c r="X48" s="38"/>
-      <c r="Y48" s="38"/>
-      <c r="Z48" s="38"/>
-      <c r="AA48" s="38"/>
-      <c r="AB48" s="38"/>
-      <c r="AC48" s="38"/>
-      <c r="AD48" s="38"/>
-      <c r="AE48" s="38"/>
-      <c r="AF48" s="38"/>
-      <c r="AG48" s="38"/>
-      <c r="AH48" s="38"/>
+      <c r="J48" s="28"/>
+      <c r="K48" s="28"/>
+      <c r="L48" s="28"/>
+      <c r="M48" s="28"/>
+      <c r="N48" s="28"/>
+      <c r="O48" s="28"/>
+      <c r="P48" s="28"/>
+      <c r="Q48" s="28"/>
+      <c r="R48" s="28"/>
+      <c r="S48" s="28"/>
+      <c r="T48" s="28"/>
+      <c r="U48" s="28"/>
+      <c r="V48" s="28"/>
+      <c r="W48" s="28"/>
+      <c r="X48" s="27"/>
+      <c r="Y48" s="27"/>
+      <c r="Z48" s="27"/>
+      <c r="AA48" s="27"/>
+      <c r="AB48" s="27"/>
+      <c r="AC48" s="27"/>
+      <c r="AD48" s="27"/>
+      <c r="AE48" s="27"/>
+      <c r="AF48" s="27"/>
+      <c r="AG48" s="27"/>
+      <c r="AH48" s="27"/>
     </row>
     <row r="49" spans="1:34" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B49" s="4">
         <f>B48+1</f>
         <v>18</v>
       </c>
-      <c r="C49" s="26" t="s">
+      <c r="C49" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="28"/>
-      <c r="I49" s="35" t="s">
+      <c r="D49" s="40"/>
+      <c r="E49" s="40"/>
+      <c r="F49" s="40"/>
+      <c r="G49" s="40"/>
+      <c r="H49" s="41"/>
+      <c r="I49" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="J49" s="35"/>
-      <c r="K49" s="35"/>
-      <c r="L49" s="35"/>
-      <c r="M49" s="35"/>
-      <c r="N49" s="35"/>
-      <c r="O49" s="35"/>
-      <c r="P49" s="35"/>
-      <c r="Q49" s="35"/>
-      <c r="R49" s="35"/>
-      <c r="S49" s="35"/>
-      <c r="T49" s="35"/>
-      <c r="U49" s="35"/>
-      <c r="V49" s="35"/>
-      <c r="W49" s="35"/>
-      <c r="X49" s="38"/>
-      <c r="Y49" s="38"/>
-      <c r="Z49" s="38"/>
-      <c r="AA49" s="38"/>
-      <c r="AB49" s="26"/>
-      <c r="AC49" s="27"/>
-      <c r="AD49" s="27"/>
-      <c r="AE49" s="27"/>
-      <c r="AF49" s="27"/>
-      <c r="AG49" s="27"/>
-      <c r="AH49" s="28"/>
+      <c r="J49" s="28"/>
+      <c r="K49" s="28"/>
+      <c r="L49" s="28"/>
+      <c r="M49" s="28"/>
+      <c r="N49" s="28"/>
+      <c r="O49" s="28"/>
+      <c r="P49" s="28"/>
+      <c r="Q49" s="28"/>
+      <c r="R49" s="28"/>
+      <c r="S49" s="28"/>
+      <c r="T49" s="28"/>
+      <c r="U49" s="28"/>
+      <c r="V49" s="28"/>
+      <c r="W49" s="28"/>
+      <c r="X49" s="27"/>
+      <c r="Y49" s="27"/>
+      <c r="Z49" s="27"/>
+      <c r="AA49" s="27"/>
+      <c r="AB49" s="39"/>
+      <c r="AC49" s="40"/>
+      <c r="AD49" s="40"/>
+      <c r="AE49" s="40"/>
+      <c r="AF49" s="40"/>
+      <c r="AG49" s="40"/>
+      <c r="AH49" s="41"/>
     </row>
     <row r="50" spans="1:34" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B50" s="4">
         <f>B49+1</f>
         <v>19</v>
       </c>
-      <c r="C50" s="26" t="s">
+      <c r="C50" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="D50" s="27"/>
-      <c r="E50" s="27"/>
-      <c r="F50" s="27"/>
-      <c r="G50" s="27"/>
-      <c r="H50" s="28"/>
-      <c r="I50" s="35" t="s">
+      <c r="D50" s="40"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="40"/>
+      <c r="H50" s="41"/>
+      <c r="I50" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="J50" s="35"/>
-      <c r="K50" s="35"/>
-      <c r="L50" s="35"/>
-      <c r="M50" s="35"/>
-      <c r="N50" s="35"/>
-      <c r="O50" s="35"/>
-      <c r="P50" s="35"/>
-      <c r="Q50" s="35"/>
-      <c r="R50" s="35"/>
-      <c r="S50" s="35"/>
-      <c r="T50" s="35"/>
-      <c r="U50" s="35"/>
-      <c r="V50" s="35"/>
-      <c r="W50" s="35"/>
-      <c r="X50" s="38"/>
-      <c r="Y50" s="38"/>
-      <c r="Z50" s="38"/>
-      <c r="AA50" s="38"/>
-      <c r="AB50" s="38"/>
-      <c r="AC50" s="38"/>
-      <c r="AD50" s="38"/>
-      <c r="AE50" s="38"/>
-      <c r="AF50" s="38"/>
-      <c r="AG50" s="38"/>
-      <c r="AH50" s="38"/>
+      <c r="J50" s="28"/>
+      <c r="K50" s="28"/>
+      <c r="L50" s="28"/>
+      <c r="M50" s="28"/>
+      <c r="N50" s="28"/>
+      <c r="O50" s="28"/>
+      <c r="P50" s="28"/>
+      <c r="Q50" s="28"/>
+      <c r="R50" s="28"/>
+      <c r="S50" s="28"/>
+      <c r="T50" s="28"/>
+      <c r="U50" s="28"/>
+      <c r="V50" s="28"/>
+      <c r="W50" s="28"/>
+      <c r="X50" s="27"/>
+      <c r="Y50" s="27"/>
+      <c r="Z50" s="27"/>
+      <c r="AA50" s="27"/>
+      <c r="AB50" s="27"/>
+      <c r="AC50" s="27"/>
+      <c r="AD50" s="27"/>
+      <c r="AE50" s="27"/>
+      <c r="AF50" s="27"/>
+      <c r="AG50" s="27"/>
+      <c r="AH50" s="27"/>
     </row>
     <row r="51" spans="1:34" s="2" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B51" s="4">
         <f>B50+1</f>
         <v>20</v>
       </c>
-      <c r="C51" s="26" t="s">
+      <c r="C51" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="D51" s="27"/>
-      <c r="E51" s="27"/>
-      <c r="F51" s="27"/>
-      <c r="G51" s="27"/>
-      <c r="H51" s="28"/>
-      <c r="I51" s="35" t="s">
+      <c r="D51" s="40"/>
+      <c r="E51" s="40"/>
+      <c r="F51" s="40"/>
+      <c r="G51" s="40"/>
+      <c r="H51" s="41"/>
+      <c r="I51" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="J51" s="35"/>
-      <c r="K51" s="35"/>
-      <c r="L51" s="35"/>
-      <c r="M51" s="35"/>
-      <c r="N51" s="35"/>
-      <c r="O51" s="35"/>
-      <c r="P51" s="35"/>
-      <c r="Q51" s="35"/>
-      <c r="R51" s="35"/>
-      <c r="S51" s="35"/>
-      <c r="T51" s="35"/>
-      <c r="U51" s="35"/>
-      <c r="V51" s="35"/>
-      <c r="W51" s="35"/>
-      <c r="X51" s="44"/>
-      <c r="Y51" s="44"/>
-      <c r="Z51" s="44"/>
-      <c r="AA51" s="44"/>
-      <c r="AB51" s="26"/>
-      <c r="AC51" s="27"/>
-      <c r="AD51" s="27"/>
-      <c r="AE51" s="27"/>
-      <c r="AF51" s="27"/>
-      <c r="AG51" s="27"/>
-      <c r="AH51" s="28"/>
+      <c r="J51" s="28"/>
+      <c r="K51" s="28"/>
+      <c r="L51" s="28"/>
+      <c r="M51" s="28"/>
+      <c r="N51" s="28"/>
+      <c r="O51" s="28"/>
+      <c r="P51" s="28"/>
+      <c r="Q51" s="28"/>
+      <c r="R51" s="28"/>
+      <c r="S51" s="28"/>
+      <c r="T51" s="28"/>
+      <c r="U51" s="28"/>
+      <c r="V51" s="28"/>
+      <c r="W51" s="28"/>
+      <c r="X51" s="42"/>
+      <c r="Y51" s="42"/>
+      <c r="Z51" s="42"/>
+      <c r="AA51" s="42"/>
+      <c r="AB51" s="39"/>
+      <c r="AC51" s="40"/>
+      <c r="AD51" s="40"/>
+      <c r="AE51" s="40"/>
+      <c r="AF51" s="40"/>
+      <c r="AG51" s="40"/>
+      <c r="AH51" s="41"/>
     </row>
     <row r="52" spans="1:34" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="53" spans="1:34" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -6966,30 +6965,55 @@
     <row r="73" spans="1:1" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="89">
-    <mergeCell ref="AB33:AH33"/>
-    <mergeCell ref="X34:AA34"/>
-    <mergeCell ref="I38:W38"/>
-    <mergeCell ref="X38:AA38"/>
-    <mergeCell ref="I33:W33"/>
-    <mergeCell ref="X33:AA33"/>
-    <mergeCell ref="AB35:AH38"/>
-    <mergeCell ref="I35:W35"/>
-    <mergeCell ref="X35:AA35"/>
-    <mergeCell ref="I36:W36"/>
-    <mergeCell ref="X36:AA36"/>
-    <mergeCell ref="I37:W37"/>
-    <mergeCell ref="X37:AA37"/>
-    <mergeCell ref="AB34:AH34"/>
-    <mergeCell ref="I34:W34"/>
-    <mergeCell ref="AB51:AH51"/>
-    <mergeCell ref="I50:W50"/>
-    <mergeCell ref="X50:AA50"/>
-    <mergeCell ref="AB50:AH50"/>
-    <mergeCell ref="AB49:AH49"/>
-    <mergeCell ref="I51:W51"/>
-    <mergeCell ref="X51:AA51"/>
-    <mergeCell ref="I49:W49"/>
-    <mergeCell ref="X49:AA49"/>
+    <mergeCell ref="C50:H50"/>
+    <mergeCell ref="C51:H51"/>
+    <mergeCell ref="C36:H36"/>
+    <mergeCell ref="C48:H48"/>
+    <mergeCell ref="C39:H39"/>
+    <mergeCell ref="C49:H49"/>
+    <mergeCell ref="C41:H41"/>
+    <mergeCell ref="C38:H38"/>
+    <mergeCell ref="C43:H43"/>
+    <mergeCell ref="C44:H44"/>
+    <mergeCell ref="C37:H37"/>
+    <mergeCell ref="C42:H42"/>
+    <mergeCell ref="C29:H29"/>
+    <mergeCell ref="C33:H33"/>
+    <mergeCell ref="I29:W29"/>
+    <mergeCell ref="C47:H47"/>
+    <mergeCell ref="C40:H40"/>
+    <mergeCell ref="C30:H30"/>
+    <mergeCell ref="C31:H31"/>
+    <mergeCell ref="C34:H34"/>
+    <mergeCell ref="C35:H35"/>
+    <mergeCell ref="I40:W40"/>
+    <mergeCell ref="I47:W47"/>
+    <mergeCell ref="I39:W39"/>
+    <mergeCell ref="I42:W42"/>
+    <mergeCell ref="C26:H26"/>
+    <mergeCell ref="X28:AA28"/>
+    <mergeCell ref="AB28:AH28"/>
+    <mergeCell ref="C27:H27"/>
+    <mergeCell ref="C28:H28"/>
+    <mergeCell ref="X26:AA26"/>
+    <mergeCell ref="I26:W26"/>
+    <mergeCell ref="AB26:AH26"/>
+    <mergeCell ref="I27:W27"/>
+    <mergeCell ref="X27:AA27"/>
+    <mergeCell ref="AB27:AH27"/>
+    <mergeCell ref="AB31:AH31"/>
+    <mergeCell ref="X30:AA30"/>
+    <mergeCell ref="X31:AA31"/>
+    <mergeCell ref="I30:W30"/>
+    <mergeCell ref="X29:AA29"/>
+    <mergeCell ref="AB29:AH29"/>
+    <mergeCell ref="I31:W31"/>
+    <mergeCell ref="AB30:AH30"/>
+    <mergeCell ref="X47:AA47"/>
+    <mergeCell ref="I43:W43"/>
+    <mergeCell ref="X43:AA43"/>
+    <mergeCell ref="X39:AA39"/>
+    <mergeCell ref="I28:W28"/>
     <mergeCell ref="AB39:AH39"/>
     <mergeCell ref="I48:W48"/>
     <mergeCell ref="X48:AA48"/>
@@ -7006,55 +7030,30 @@
     <mergeCell ref="AB43:AH43"/>
     <mergeCell ref="AB42:AH42"/>
     <mergeCell ref="X42:AA42"/>
-    <mergeCell ref="X47:AA47"/>
-    <mergeCell ref="I43:W43"/>
-    <mergeCell ref="X43:AA43"/>
-    <mergeCell ref="X39:AA39"/>
-    <mergeCell ref="I28:W28"/>
-    <mergeCell ref="AB31:AH31"/>
-    <mergeCell ref="X30:AA30"/>
-    <mergeCell ref="X31:AA31"/>
-    <mergeCell ref="I30:W30"/>
-    <mergeCell ref="X29:AA29"/>
-    <mergeCell ref="AB29:AH29"/>
-    <mergeCell ref="I31:W31"/>
-    <mergeCell ref="AB30:AH30"/>
-    <mergeCell ref="C26:H26"/>
-    <mergeCell ref="X28:AA28"/>
-    <mergeCell ref="AB28:AH28"/>
-    <mergeCell ref="C27:H27"/>
-    <mergeCell ref="C28:H28"/>
-    <mergeCell ref="X26:AA26"/>
-    <mergeCell ref="I26:W26"/>
-    <mergeCell ref="AB26:AH26"/>
-    <mergeCell ref="I27:W27"/>
-    <mergeCell ref="X27:AA27"/>
-    <mergeCell ref="AB27:AH27"/>
-    <mergeCell ref="C29:H29"/>
-    <mergeCell ref="C33:H33"/>
-    <mergeCell ref="I29:W29"/>
-    <mergeCell ref="C47:H47"/>
-    <mergeCell ref="C40:H40"/>
-    <mergeCell ref="C30:H30"/>
-    <mergeCell ref="C31:H31"/>
-    <mergeCell ref="C34:H34"/>
-    <mergeCell ref="C35:H35"/>
-    <mergeCell ref="I40:W40"/>
-    <mergeCell ref="I47:W47"/>
-    <mergeCell ref="I39:W39"/>
-    <mergeCell ref="I42:W42"/>
-    <mergeCell ref="C50:H50"/>
-    <mergeCell ref="C51:H51"/>
-    <mergeCell ref="C36:H36"/>
-    <mergeCell ref="C48:H48"/>
-    <mergeCell ref="C39:H39"/>
-    <mergeCell ref="C49:H49"/>
-    <mergeCell ref="C41:H41"/>
-    <mergeCell ref="C38:H38"/>
-    <mergeCell ref="C43:H43"/>
-    <mergeCell ref="C44:H44"/>
-    <mergeCell ref="C37:H37"/>
-    <mergeCell ref="C42:H42"/>
+    <mergeCell ref="AB51:AH51"/>
+    <mergeCell ref="I50:W50"/>
+    <mergeCell ref="X50:AA50"/>
+    <mergeCell ref="AB50:AH50"/>
+    <mergeCell ref="AB49:AH49"/>
+    <mergeCell ref="I51:W51"/>
+    <mergeCell ref="X51:AA51"/>
+    <mergeCell ref="I49:W49"/>
+    <mergeCell ref="X49:AA49"/>
+    <mergeCell ref="AB33:AH33"/>
+    <mergeCell ref="X34:AA34"/>
+    <mergeCell ref="I38:W38"/>
+    <mergeCell ref="X38:AA38"/>
+    <mergeCell ref="I33:W33"/>
+    <mergeCell ref="X33:AA33"/>
+    <mergeCell ref="AB35:AH38"/>
+    <mergeCell ref="I35:W35"/>
+    <mergeCell ref="X35:AA35"/>
+    <mergeCell ref="I36:W36"/>
+    <mergeCell ref="X36:AA36"/>
+    <mergeCell ref="I37:W37"/>
+    <mergeCell ref="X37:AA37"/>
+    <mergeCell ref="AB34:AH34"/>
+    <mergeCell ref="I34:W34"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
@@ -7098,7 +7097,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="8" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="8" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C－&amp;P－</oddFooter>
   </headerFooter>

--- a/original/5-6_業務要件定義/6_業務要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DG-207_業務フロー(サンプル＆ガイド).xlsx
+++ b/original/5-6_業務要件定義/6_業務要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DG-207_業務フロー(サンプル＆ガイド).xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4859E905-1C91-4788-B093-588FC162736C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="10575" windowHeight="5745"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="17850" windowHeight="11100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -18,12 +19,22 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">ガイド!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">サンプル!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="75">
   <si>
     <t>記述内容</t>
     <rPh sb="0" eb="2">
@@ -1376,17 +1387,6 @@
     <phoneticPr fontId="12"/>
   </si>
   <si>
-    <t xml:space="preserve">この 作品 は </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>クリエイティブ・コモンズ 表示 - 継承 4.0 国際 ライセンス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>の下に提供されています。</t>
-  </si>
-  <si>
     <t>● 業務フローの記述レベルは、システム化対象の業務作業で利用するＵＩシステム機能名まで記述する。</t>
     <rPh sb="2" eb="4">
       <t>ギョウム</t>
@@ -1568,18 +1568,11 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
-  <si>
-    <t>要件定義フレームワーク©2018 TIS INC. クリエイティブ・コモンズ・ライセンス（表示-継承 4.0 国際）</t>
-    <rPh sb="0" eb="1">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
@@ -2055,14 +2048,62 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2089,54 +2130,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2218,6 +2211,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -2239,7 +2235,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Text Box 7610"/>
+        <xdr:cNvPr id="2" name="Text Box 7610">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2337,52 +2339,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>94137</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="276225" y="6715125"/>
-          <a:ext cx="838200" cy="265587"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2403,7 +2359,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="73" name="正方形/長方形 72"/>
+        <xdr:cNvPr id="73" name="正方形/長方形 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000049000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2490,7 +2452,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="136" name="正方形/長方形 135"/>
+        <xdr:cNvPr id="136" name="正方形/長方形 135">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000088000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2572,7 +2540,13 @@
     <xdr:ext cx="1005403" cy="359073"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="182" name="テキスト ボックス 181"/>
+        <xdr:cNvPr id="182" name="テキスト ボックス 181">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000B6000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2649,7 +2623,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="正方形/長方形 45"/>
+        <xdr:cNvPr id="46" name="正方形/長方形 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2712,7 +2692,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="カギ線コネクタ 3"/>
+        <xdr:cNvPr id="4" name="カギ線コネクタ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="79" idx="3"/>
           <a:endCxn id="136" idx="1"/>
@@ -2762,7 +2748,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="83" name="正方形/長方形 82"/>
+        <xdr:cNvPr id="83" name="正方形/長方形 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000053000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2844,7 +2836,13 @@
     <xdr:ext cx="1107996" cy="225703"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="テキスト ボックス 16"/>
+        <xdr:cNvPr id="17" name="テキスト ボックス 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2908,7 +2906,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="直線矢印コネクタ 7"/>
+        <xdr:cNvPr id="8" name="直線矢印コネクタ 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="136" idx="3"/>
           <a:endCxn id="83" idx="1"/>
@@ -2953,7 +2957,13 @@
     <xdr:ext cx="902811" cy="225703"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="テキスト ボックス 37"/>
+        <xdr:cNvPr id="38" name="テキスト ボックス 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000026000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3017,7 +3027,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="79" name="正方形/長方形 78"/>
+        <xdr:cNvPr id="79" name="正方形/長方形 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3099,7 +3115,13 @@
     <xdr:ext cx="1313180" cy="359073"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="80" name="テキスト ボックス 79"/>
+        <xdr:cNvPr id="80" name="テキスト ボックス 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000050000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3188,7 +3210,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="33" name="直線矢印コネクタ 32"/>
+        <xdr:cNvPr id="33" name="直線矢印コネクタ 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3235,7 +3263,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="34" name="直線矢印コネクタ 33"/>
+        <xdr:cNvPr id="34" name="直線矢印コネクタ 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3283,7 +3317,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="正方形/長方形 40"/>
+        <xdr:cNvPr id="41" name="正方形/長方形 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000029000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3370,7 +3410,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="42" name="カギ線コネクタ 41"/>
+        <xdr:cNvPr id="42" name="カギ線コネクタ 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="41" idx="3"/>
           <a:endCxn id="136" idx="1"/>
@@ -3417,7 +3463,13 @@
     <xdr:ext cx="1210588" cy="492443"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="テキスト ボックス 43"/>
+        <xdr:cNvPr id="44" name="テキスト ボックス 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3534,7 +3586,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="55" name="カギ線コネクタ 54"/>
+        <xdr:cNvPr id="55" name="カギ線コネクタ 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000037000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="46" idx="3"/>
           <a:endCxn id="136" idx="1"/>
@@ -3586,7 +3644,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="正方形/長方形 39"/>
+        <xdr:cNvPr id="40" name="正方形/長方形 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000028000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3673,7 +3737,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="43" name="カギ線コネクタ 42"/>
+        <xdr:cNvPr id="43" name="カギ線コネクタ 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="40" idx="3"/>
           <a:endCxn id="136" idx="1"/>
@@ -3720,7 +3790,13 @@
     <xdr:ext cx="697627" cy="225703"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="テキスト ボックス 44"/>
+        <xdr:cNvPr id="45" name="テキスト ボックス 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3784,7 +3860,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="直線矢印コネクタ 6"/>
+        <xdr:cNvPr id="7" name="直線矢印コネクタ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="73" idx="2"/>
           <a:endCxn id="136" idx="0"/>
@@ -3834,7 +3916,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="正方形/長方形 46"/>
+        <xdr:cNvPr id="47" name="正方形/長方形 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3936,7 +4024,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="48" name="カギ線コネクタ 47"/>
+        <xdr:cNvPr id="48" name="カギ線コネクタ 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000030000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="47" idx="3"/>
           <a:endCxn id="136" idx="1"/>
@@ -3983,7 +4077,13 @@
     <xdr:ext cx="1005403" cy="359073"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="テキスト ボックス 48"/>
+        <xdr:cNvPr id="49" name="テキスト ボックス 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000031000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4072,7 +4172,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="図 8"/>
+        <xdr:cNvPr id="9" name="図 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4110,7 +4216,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="図 9"/>
+        <xdr:cNvPr id="10" name="図 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4148,7 +4260,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="図 10"/>
+        <xdr:cNvPr id="11" name="図 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4186,7 +4304,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="図 11"/>
+        <xdr:cNvPr id="12" name="図 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4224,7 +4348,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="図 12"/>
+        <xdr:cNvPr id="13" name="図 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4262,7 +4392,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="図 13"/>
+        <xdr:cNvPr id="14" name="図 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4300,7 +4436,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="図 14"/>
+        <xdr:cNvPr id="15" name="図 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4338,7 +4480,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="図 21"/>
+        <xdr:cNvPr id="22" name="図 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4376,7 +4524,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="図 22"/>
+        <xdr:cNvPr id="23" name="図 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4414,7 +4568,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="図 23"/>
+        <xdr:cNvPr id="24" name="図 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4452,7 +4612,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="図 24"/>
+        <xdr:cNvPr id="25" name="図 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4490,7 +4656,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="図 25"/>
+        <xdr:cNvPr id="26" name="図 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4528,7 +4700,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="図 26"/>
+        <xdr:cNvPr id="27" name="図 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4566,7 +4744,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="図 28"/>
+        <xdr:cNvPr id="29" name="図 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4599,7 +4783,13 @@
     <xdr:ext cx="184731" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="テキスト ボックス 2"/>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4653,7 +4843,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="図 5"/>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4697,7 +4893,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="図 15"/>
+        <xdr:cNvPr id="16" name="図 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4736,7 +4938,13 @@
     <xdr:ext cx="877163" cy="242374"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="テキスト ボックス 4"/>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4794,7 +5002,13 @@
     <xdr:ext cx="761747" cy="242374"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="テキスト ボックス 49"/>
+        <xdr:cNvPr id="50" name="テキスト ボックス 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000032000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4862,7 +5076,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4895,7 +5115,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4937,7 +5157,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4970,9 +5190,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5005,6 +5242,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5180,7 +5434,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5289,58 +5543,47 @@
       <c r="R32" s="20"/>
       <c r="S32" s="21"/>
     </row>
-    <row r="33" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="34" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="35" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="36" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O36" s="18"/>
       <c r="P36" s="18"/>
       <c r="Q36" s="21"/>
       <c r="R36" s="21"/>
       <c r="S36" s="21"/>
     </row>
-    <row r="37" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O37" s="22"/>
       <c r="P37" s="21"/>
       <c r="Q37" s="22"/>
       <c r="R37" s="21"/>
       <c r="S37" s="23"/>
     </row>
-    <row r="38" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O38" s="22"/>
       <c r="P38" s="21"/>
       <c r="Q38" s="22"/>
       <c r="R38" s="21"/>
       <c r="S38" s="22"/>
     </row>
-    <row r="39" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E39" s="24" t="s">
-        <v>68</v>
-      </c>
+    <row r="39" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E39" s="24"/>
       <c r="O39" s="21"/>
       <c r="P39" s="21"/>
       <c r="Q39" s="22"/>
-      <c r="R39" s="22" t="s">
-        <v>69</v>
-      </c>
+      <c r="R39" s="22"/>
       <c r="S39" s="21"/>
     </row>
-    <row r="40" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="41" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5803,17 +6046,14 @@
     <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="E39" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AH73"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
@@ -5914,7 +6154,7 @@
     <row r="21" spans="1:34" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="5"/>
       <c r="B21" s="25" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:34" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -5942,265 +6182,265 @@
       <c r="B26" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="43" t="s">
+      <c r="C26" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="26" t="s">
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="26"/>
-      <c r="M26" s="26"/>
-      <c r="N26" s="26"/>
-      <c r="O26" s="26"/>
-      <c r="P26" s="26"/>
-      <c r="Q26" s="26"/>
-      <c r="R26" s="26"/>
-      <c r="S26" s="26"/>
-      <c r="T26" s="26"/>
-      <c r="U26" s="26"/>
-      <c r="V26" s="26"/>
-      <c r="W26" s="26"/>
-      <c r="X26" s="26" t="s">
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="37"/>
+      <c r="O26" s="37"/>
+      <c r="P26" s="37"/>
+      <c r="Q26" s="37"/>
+      <c r="R26" s="37"/>
+      <c r="S26" s="37"/>
+      <c r="T26" s="37"/>
+      <c r="U26" s="37"/>
+      <c r="V26" s="37"/>
+      <c r="W26" s="37"/>
+      <c r="X26" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="Y26" s="26"/>
-      <c r="Z26" s="26"/>
-      <c r="AA26" s="26"/>
-      <c r="AB26" s="26" t="s">
+      <c r="Y26" s="37"/>
+      <c r="Z26" s="37"/>
+      <c r="AA26" s="37"/>
+      <c r="AB26" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="AC26" s="26"/>
-      <c r="AD26" s="26"/>
-      <c r="AE26" s="26"/>
-      <c r="AF26" s="26"/>
-      <c r="AG26" s="26"/>
-      <c r="AH26" s="26"/>
+      <c r="AC26" s="37"/>
+      <c r="AD26" s="37"/>
+      <c r="AE26" s="37"/>
+      <c r="AF26" s="37"/>
+      <c r="AG26" s="37"/>
+      <c r="AH26" s="37"/>
     </row>
     <row r="27" spans="1:34" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B27" s="7">
         <v>1</v>
       </c>
-      <c r="C27" s="46" t="s">
+      <c r="C27" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="49" t="s">
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="J27" s="49"/>
-      <c r="K27" s="49"/>
-      <c r="L27" s="49"/>
-      <c r="M27" s="49"/>
-      <c r="N27" s="49"/>
-      <c r="O27" s="49"/>
-      <c r="P27" s="49"/>
-      <c r="Q27" s="49"/>
-      <c r="R27" s="49"/>
-      <c r="S27" s="49"/>
-      <c r="T27" s="49"/>
-      <c r="U27" s="49"/>
-      <c r="V27" s="49"/>
-      <c r="W27" s="49"/>
-      <c r="X27" s="50" t="s">
+      <c r="J27" s="42"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="42"/>
+      <c r="N27" s="42"/>
+      <c r="O27" s="42"/>
+      <c r="P27" s="42"/>
+      <c r="Q27" s="42"/>
+      <c r="R27" s="42"/>
+      <c r="S27" s="42"/>
+      <c r="T27" s="42"/>
+      <c r="U27" s="42"/>
+      <c r="V27" s="42"/>
+      <c r="W27" s="42"/>
+      <c r="X27" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="Y27" s="50"/>
-      <c r="Z27" s="50"/>
-      <c r="AA27" s="50"/>
-      <c r="AB27" s="46" t="s">
+      <c r="Y27" s="43"/>
+      <c r="Z27" s="43"/>
+      <c r="AA27" s="43"/>
+      <c r="AB27" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="AC27" s="47"/>
-      <c r="AD27" s="47"/>
-      <c r="AE27" s="47"/>
-      <c r="AF27" s="47"/>
-      <c r="AG27" s="47"/>
-      <c r="AH27" s="48"/>
+      <c r="AC27" s="40"/>
+      <c r="AD27" s="40"/>
+      <c r="AE27" s="40"/>
+      <c r="AF27" s="40"/>
+      <c r="AG27" s="40"/>
+      <c r="AH27" s="41"/>
     </row>
     <row r="28" spans="1:34" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="4">
         <f>B27+1</f>
         <v>2</v>
       </c>
-      <c r="C28" s="39" t="s">
+      <c r="C28" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="40"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="28" t="s">
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="28"/>
-      <c r="M28" s="28"/>
-      <c r="N28" s="28"/>
-      <c r="O28" s="28"/>
-      <c r="P28" s="28"/>
-      <c r="Q28" s="28"/>
-      <c r="R28" s="28"/>
-      <c r="S28" s="28"/>
-      <c r="T28" s="28"/>
-      <c r="U28" s="28"/>
-      <c r="V28" s="28"/>
-      <c r="W28" s="28"/>
-      <c r="X28" s="27" t="s">
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="35"/>
+      <c r="N28" s="35"/>
+      <c r="O28" s="35"/>
+      <c r="P28" s="35"/>
+      <c r="Q28" s="35"/>
+      <c r="R28" s="35"/>
+      <c r="S28" s="35"/>
+      <c r="T28" s="35"/>
+      <c r="U28" s="35"/>
+      <c r="V28" s="35"/>
+      <c r="W28" s="35"/>
+      <c r="X28" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="Y28" s="27"/>
-      <c r="Z28" s="27"/>
-      <c r="AA28" s="27"/>
-      <c r="AB28" s="39" t="s">
+      <c r="Y28" s="38"/>
+      <c r="Z28" s="38"/>
+      <c r="AA28" s="38"/>
+      <c r="AB28" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="AC28" s="40"/>
-      <c r="AD28" s="40"/>
-      <c r="AE28" s="40"/>
-      <c r="AF28" s="40"/>
-      <c r="AG28" s="40"/>
-      <c r="AH28" s="41"/>
+      <c r="AC28" s="27"/>
+      <c r="AD28" s="27"/>
+      <c r="AE28" s="27"/>
+      <c r="AF28" s="27"/>
+      <c r="AG28" s="27"/>
+      <c r="AH28" s="28"/>
     </row>
     <row r="29" spans="1:34" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="4">
         <f t="shared" ref="B29:B30" si="0">B28+1</f>
         <v>3</v>
       </c>
-      <c r="C29" s="39" t="s">
+      <c r="C29" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="40"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="28" t="s">
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="28"/>
-      <c r="N29" s="28"/>
-      <c r="O29" s="28"/>
-      <c r="P29" s="28"/>
-      <c r="Q29" s="28"/>
-      <c r="R29" s="28"/>
-      <c r="S29" s="28"/>
-      <c r="T29" s="28"/>
-      <c r="U29" s="28"/>
-      <c r="V29" s="28"/>
-      <c r="W29" s="28"/>
-      <c r="X29" s="27" t="s">
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="35"/>
+      <c r="N29" s="35"/>
+      <c r="O29" s="35"/>
+      <c r="P29" s="35"/>
+      <c r="Q29" s="35"/>
+      <c r="R29" s="35"/>
+      <c r="S29" s="35"/>
+      <c r="T29" s="35"/>
+      <c r="U29" s="35"/>
+      <c r="V29" s="35"/>
+      <c r="W29" s="35"/>
+      <c r="X29" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="Y29" s="27"/>
-      <c r="Z29" s="27"/>
-      <c r="AA29" s="27"/>
-      <c r="AB29" s="27"/>
-      <c r="AC29" s="27"/>
-      <c r="AD29" s="27"/>
-      <c r="AE29" s="27"/>
-      <c r="AF29" s="27"/>
-      <c r="AG29" s="27"/>
-      <c r="AH29" s="27"/>
+      <c r="Y29" s="38"/>
+      <c r="Z29" s="38"/>
+      <c r="AA29" s="38"/>
+      <c r="AB29" s="38"/>
+      <c r="AC29" s="38"/>
+      <c r="AD29" s="38"/>
+      <c r="AE29" s="38"/>
+      <c r="AF29" s="38"/>
+      <c r="AG29" s="38"/>
+      <c r="AH29" s="38"/>
     </row>
     <row r="30" spans="1:34" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C30" s="39" t="s">
+      <c r="C30" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="28" t="s">
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="J30" s="28"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="28"/>
-      <c r="M30" s="28"/>
-      <c r="N30" s="28"/>
-      <c r="O30" s="28"/>
-      <c r="P30" s="28"/>
-      <c r="Q30" s="28"/>
-      <c r="R30" s="28"/>
-      <c r="S30" s="28"/>
-      <c r="T30" s="28"/>
-      <c r="U30" s="28"/>
-      <c r="V30" s="28"/>
-      <c r="W30" s="28"/>
-      <c r="X30" s="27"/>
-      <c r="Y30" s="27"/>
-      <c r="Z30" s="27"/>
-      <c r="AA30" s="27"/>
-      <c r="AB30" s="27"/>
-      <c r="AC30" s="27"/>
-      <c r="AD30" s="27"/>
-      <c r="AE30" s="27"/>
-      <c r="AF30" s="27"/>
-      <c r="AG30" s="27"/>
-      <c r="AH30" s="27"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="35"/>
+      <c r="M30" s="35"/>
+      <c r="N30" s="35"/>
+      <c r="O30" s="35"/>
+      <c r="P30" s="35"/>
+      <c r="Q30" s="35"/>
+      <c r="R30" s="35"/>
+      <c r="S30" s="35"/>
+      <c r="T30" s="35"/>
+      <c r="U30" s="35"/>
+      <c r="V30" s="35"/>
+      <c r="W30" s="35"/>
+      <c r="X30" s="38"/>
+      <c r="Y30" s="38"/>
+      <c r="Z30" s="38"/>
+      <c r="AA30" s="38"/>
+      <c r="AB30" s="38"/>
+      <c r="AC30" s="38"/>
+      <c r="AD30" s="38"/>
+      <c r="AE30" s="38"/>
+      <c r="AF30" s="38"/>
+      <c r="AG30" s="38"/>
+      <c r="AH30" s="38"/>
     </row>
     <row r="31" spans="1:34" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="4">
         <f t="shared" ref="B31" si="1">B30+1</f>
         <v>5</v>
       </c>
-      <c r="C31" s="39" t="s">
+      <c r="C31" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="28" t="s">
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="J31" s="28"/>
-      <c r="K31" s="28"/>
-      <c r="L31" s="28"/>
-      <c r="M31" s="28"/>
-      <c r="N31" s="28"/>
-      <c r="O31" s="28"/>
-      <c r="P31" s="28"/>
-      <c r="Q31" s="28"/>
-      <c r="R31" s="28"/>
-      <c r="S31" s="28"/>
-      <c r="T31" s="28"/>
-      <c r="U31" s="28"/>
-      <c r="V31" s="28"/>
-      <c r="W31" s="28"/>
-      <c r="X31" s="27"/>
-      <c r="Y31" s="27"/>
-      <c r="Z31" s="27"/>
-      <c r="AA31" s="27"/>
-      <c r="AB31" s="27"/>
-      <c r="AC31" s="27"/>
-      <c r="AD31" s="27"/>
-      <c r="AE31" s="27"/>
-      <c r="AF31" s="27"/>
-      <c r="AG31" s="27"/>
-      <c r="AH31" s="27"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="35"/>
+      <c r="L31" s="35"/>
+      <c r="M31" s="35"/>
+      <c r="N31" s="35"/>
+      <c r="O31" s="35"/>
+      <c r="P31" s="35"/>
+      <c r="Q31" s="35"/>
+      <c r="R31" s="35"/>
+      <c r="S31" s="35"/>
+      <c r="T31" s="35"/>
+      <c r="U31" s="35"/>
+      <c r="V31" s="35"/>
+      <c r="W31" s="35"/>
+      <c r="X31" s="38"/>
+      <c r="Y31" s="38"/>
+      <c r="Z31" s="38"/>
+      <c r="AA31" s="38"/>
+      <c r="AB31" s="38"/>
+      <c r="AC31" s="38"/>
+      <c r="AD31" s="38"/>
+      <c r="AE31" s="38"/>
+      <c r="AF31" s="38"/>
+      <c r="AG31" s="38"/>
+      <c r="AH31" s="38"/>
     </row>
     <row r="32" spans="1:34" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="3"/>
@@ -6209,512 +6449,512 @@
       <c r="B33" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="43" t="s">
+      <c r="C33" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="D33" s="44"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="44"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="26" t="s">
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="J33" s="26"/>
-      <c r="K33" s="26"/>
-      <c r="L33" s="26"/>
-      <c r="M33" s="26"/>
-      <c r="N33" s="26"/>
-      <c r="O33" s="26"/>
-      <c r="P33" s="26"/>
-      <c r="Q33" s="26"/>
-      <c r="R33" s="26"/>
-      <c r="S33" s="26"/>
-      <c r="T33" s="26"/>
-      <c r="U33" s="26"/>
-      <c r="V33" s="26"/>
-      <c r="W33" s="26"/>
-      <c r="X33" s="26" t="s">
+      <c r="J33" s="37"/>
+      <c r="K33" s="37"/>
+      <c r="L33" s="37"/>
+      <c r="M33" s="37"/>
+      <c r="N33" s="37"/>
+      <c r="O33" s="37"/>
+      <c r="P33" s="37"/>
+      <c r="Q33" s="37"/>
+      <c r="R33" s="37"/>
+      <c r="S33" s="37"/>
+      <c r="T33" s="37"/>
+      <c r="U33" s="37"/>
+      <c r="V33" s="37"/>
+      <c r="W33" s="37"/>
+      <c r="X33" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="Y33" s="26"/>
-      <c r="Z33" s="26"/>
-      <c r="AA33" s="26"/>
-      <c r="AB33" s="26" t="s">
+      <c r="Y33" s="37"/>
+      <c r="Z33" s="37"/>
+      <c r="AA33" s="37"/>
+      <c r="AB33" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="AC33" s="26"/>
-      <c r="AD33" s="26"/>
-      <c r="AE33" s="26"/>
-      <c r="AF33" s="26"/>
-      <c r="AG33" s="26"/>
-      <c r="AH33" s="26"/>
+      <c r="AC33" s="37"/>
+      <c r="AD33" s="37"/>
+      <c r="AE33" s="37"/>
+      <c r="AF33" s="37"/>
+      <c r="AG33" s="37"/>
+      <c r="AH33" s="37"/>
     </row>
     <row r="34" spans="2:34" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B34" s="4">
         <f>B31+1</f>
         <v>6</v>
       </c>
-      <c r="C34" s="39" t="s">
+      <c r="C34" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="40"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="40"/>
-      <c r="H34" s="41"/>
-      <c r="I34" s="28" t="s">
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="J34" s="28"/>
-      <c r="K34" s="28"/>
-      <c r="L34" s="28"/>
-      <c r="M34" s="28"/>
-      <c r="N34" s="28"/>
-      <c r="O34" s="28"/>
-      <c r="P34" s="28"/>
-      <c r="Q34" s="28"/>
-      <c r="R34" s="28"/>
-      <c r="S34" s="28"/>
-      <c r="T34" s="28"/>
-      <c r="U34" s="28"/>
-      <c r="V34" s="28"/>
-      <c r="W34" s="28"/>
-      <c r="X34" s="27"/>
-      <c r="Y34" s="27"/>
-      <c r="Z34" s="27"/>
-      <c r="AA34" s="27"/>
-      <c r="AB34" s="39" t="s">
+      <c r="J34" s="35"/>
+      <c r="K34" s="35"/>
+      <c r="L34" s="35"/>
+      <c r="M34" s="35"/>
+      <c r="N34" s="35"/>
+      <c r="O34" s="35"/>
+      <c r="P34" s="35"/>
+      <c r="Q34" s="35"/>
+      <c r="R34" s="35"/>
+      <c r="S34" s="35"/>
+      <c r="T34" s="35"/>
+      <c r="U34" s="35"/>
+      <c r="V34" s="35"/>
+      <c r="W34" s="35"/>
+      <c r="X34" s="38"/>
+      <c r="Y34" s="38"/>
+      <c r="Z34" s="38"/>
+      <c r="AA34" s="38"/>
+      <c r="AB34" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="AC34" s="40"/>
-      <c r="AD34" s="40"/>
-      <c r="AE34" s="40"/>
-      <c r="AF34" s="40"/>
-      <c r="AG34" s="40"/>
-      <c r="AH34" s="41"/>
+      <c r="AC34" s="27"/>
+      <c r="AD34" s="27"/>
+      <c r="AE34" s="27"/>
+      <c r="AF34" s="27"/>
+      <c r="AG34" s="27"/>
+      <c r="AH34" s="28"/>
     </row>
     <row r="35" spans="2:34" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="4">
         <f>B34+1</f>
         <v>7</v>
       </c>
-      <c r="C35" s="51" t="s">
-        <v>71</v>
-      </c>
-      <c r="D35" s="52"/>
-      <c r="E35" s="52"/>
-      <c r="F35" s="52"/>
-      <c r="G35" s="52"/>
-      <c r="H35" s="53"/>
-      <c r="I35" s="38" t="s">
+      <c r="C35" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="36"/>
+      <c r="M35" s="36"/>
+      <c r="N35" s="36"/>
+      <c r="O35" s="36"/>
+      <c r="P35" s="36"/>
+      <c r="Q35" s="36"/>
+      <c r="R35" s="36"/>
+      <c r="S35" s="36"/>
+      <c r="T35" s="36"/>
+      <c r="U35" s="36"/>
+      <c r="V35" s="36"/>
+      <c r="W35" s="36"/>
+      <c r="X35" s="38"/>
+      <c r="Y35" s="38"/>
+      <c r="Z35" s="38"/>
+      <c r="AA35" s="38"/>
+      <c r="AB35" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="J35" s="38"/>
-      <c r="K35" s="38"/>
-      <c r="L35" s="38"/>
-      <c r="M35" s="38"/>
-      <c r="N35" s="38"/>
-      <c r="O35" s="38"/>
-      <c r="P35" s="38"/>
-      <c r="Q35" s="38"/>
-      <c r="R35" s="38"/>
-      <c r="S35" s="38"/>
-      <c r="T35" s="38"/>
-      <c r="U35" s="38"/>
-      <c r="V35" s="38"/>
-      <c r="W35" s="38"/>
-      <c r="X35" s="27"/>
-      <c r="Y35" s="27"/>
-      <c r="Z35" s="27"/>
-      <c r="AA35" s="27"/>
-      <c r="AB35" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC35" s="30"/>
-      <c r="AD35" s="30"/>
-      <c r="AE35" s="30"/>
-      <c r="AF35" s="30"/>
-      <c r="AG35" s="30"/>
-      <c r="AH35" s="31"/>
+      <c r="AC35" s="46"/>
+      <c r="AD35" s="46"/>
+      <c r="AE35" s="46"/>
+      <c r="AF35" s="46"/>
+      <c r="AG35" s="46"/>
+      <c r="AH35" s="47"/>
     </row>
     <row r="36" spans="2:34" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="4">
         <f>B35+1</f>
         <v>8</v>
       </c>
-      <c r="C36" s="51" t="s">
-        <v>73</v>
-      </c>
-      <c r="D36" s="52"/>
-      <c r="E36" s="52"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="52"/>
-      <c r="H36" s="53"/>
-      <c r="I36" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="J36" s="38"/>
-      <c r="K36" s="38"/>
-      <c r="L36" s="38"/>
-      <c r="M36" s="38"/>
-      <c r="N36" s="38"/>
-      <c r="O36" s="38"/>
-      <c r="P36" s="38"/>
-      <c r="Q36" s="38"/>
-      <c r="R36" s="38"/>
-      <c r="S36" s="38"/>
-      <c r="T36" s="38"/>
-      <c r="U36" s="38"/>
-      <c r="V36" s="38"/>
-      <c r="W36" s="38"/>
-      <c r="X36" s="27"/>
-      <c r="Y36" s="27"/>
-      <c r="Z36" s="27"/>
-      <c r="AA36" s="27"/>
-      <c r="AB36" s="32"/>
-      <c r="AC36" s="33"/>
-      <c r="AD36" s="33"/>
-      <c r="AE36" s="33"/>
-      <c r="AF36" s="33"/>
-      <c r="AG36" s="33"/>
-      <c r="AH36" s="34"/>
+      <c r="C36" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="36"/>
+      <c r="M36" s="36"/>
+      <c r="N36" s="36"/>
+      <c r="O36" s="36"/>
+      <c r="P36" s="36"/>
+      <c r="Q36" s="36"/>
+      <c r="R36" s="36"/>
+      <c r="S36" s="36"/>
+      <c r="T36" s="36"/>
+      <c r="U36" s="36"/>
+      <c r="V36" s="36"/>
+      <c r="W36" s="36"/>
+      <c r="X36" s="38"/>
+      <c r="Y36" s="38"/>
+      <c r="Z36" s="38"/>
+      <c r="AA36" s="38"/>
+      <c r="AB36" s="48"/>
+      <c r="AC36" s="49"/>
+      <c r="AD36" s="49"/>
+      <c r="AE36" s="49"/>
+      <c r="AF36" s="49"/>
+      <c r="AG36" s="49"/>
+      <c r="AH36" s="50"/>
     </row>
     <row r="37" spans="2:34" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="4">
         <f>B36+1</f>
         <v>9</v>
       </c>
-      <c r="C37" s="39" t="s">
+      <c r="C37" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D37" s="40"/>
-      <c r="E37" s="40"/>
-      <c r="F37" s="40"/>
-      <c r="G37" s="40"/>
-      <c r="H37" s="41"/>
-      <c r="I37" s="28" t="s">
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="J37" s="28"/>
-      <c r="K37" s="28"/>
-      <c r="L37" s="28"/>
-      <c r="M37" s="28"/>
-      <c r="N37" s="28"/>
-      <c r="O37" s="28"/>
-      <c r="P37" s="28"/>
-      <c r="Q37" s="28"/>
-      <c r="R37" s="28"/>
-      <c r="S37" s="28"/>
-      <c r="T37" s="28"/>
-      <c r="U37" s="28"/>
-      <c r="V37" s="28"/>
-      <c r="W37" s="28"/>
-      <c r="X37" s="27"/>
-      <c r="Y37" s="27"/>
-      <c r="Z37" s="27"/>
-      <c r="AA37" s="27"/>
-      <c r="AB37" s="32"/>
-      <c r="AC37" s="33"/>
-      <c r="AD37" s="33"/>
-      <c r="AE37" s="33"/>
-      <c r="AF37" s="33"/>
-      <c r="AG37" s="33"/>
-      <c r="AH37" s="34"/>
+      <c r="J37" s="35"/>
+      <c r="K37" s="35"/>
+      <c r="L37" s="35"/>
+      <c r="M37" s="35"/>
+      <c r="N37" s="35"/>
+      <c r="O37" s="35"/>
+      <c r="P37" s="35"/>
+      <c r="Q37" s="35"/>
+      <c r="R37" s="35"/>
+      <c r="S37" s="35"/>
+      <c r="T37" s="35"/>
+      <c r="U37" s="35"/>
+      <c r="V37" s="35"/>
+      <c r="W37" s="35"/>
+      <c r="X37" s="38"/>
+      <c r="Y37" s="38"/>
+      <c r="Z37" s="38"/>
+      <c r="AA37" s="38"/>
+      <c r="AB37" s="48"/>
+      <c r="AC37" s="49"/>
+      <c r="AD37" s="49"/>
+      <c r="AE37" s="49"/>
+      <c r="AF37" s="49"/>
+      <c r="AG37" s="49"/>
+      <c r="AH37" s="50"/>
     </row>
     <row r="38" spans="2:34" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="4">
         <f>B37+1</f>
         <v>10</v>
       </c>
-      <c r="C38" s="39" t="s">
+      <c r="C38" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D38" s="40"/>
-      <c r="E38" s="40"/>
-      <c r="F38" s="40"/>
-      <c r="G38" s="40"/>
-      <c r="H38" s="41"/>
-      <c r="I38" s="28" t="s">
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="J38" s="28"/>
-      <c r="K38" s="28"/>
-      <c r="L38" s="28"/>
-      <c r="M38" s="28"/>
-      <c r="N38" s="28"/>
-      <c r="O38" s="28"/>
-      <c r="P38" s="28"/>
-      <c r="Q38" s="28"/>
-      <c r="R38" s="28"/>
-      <c r="S38" s="28"/>
-      <c r="T38" s="28"/>
-      <c r="U38" s="28"/>
-      <c r="V38" s="28"/>
-      <c r="W38" s="28"/>
-      <c r="X38" s="27"/>
-      <c r="Y38" s="27"/>
-      <c r="Z38" s="27"/>
-      <c r="AA38" s="27"/>
-      <c r="AB38" s="35"/>
-      <c r="AC38" s="36"/>
-      <c r="AD38" s="36"/>
-      <c r="AE38" s="36"/>
-      <c r="AF38" s="36"/>
-      <c r="AG38" s="36"/>
-      <c r="AH38" s="37"/>
+      <c r="J38" s="35"/>
+      <c r="K38" s="35"/>
+      <c r="L38" s="35"/>
+      <c r="M38" s="35"/>
+      <c r="N38" s="35"/>
+      <c r="O38" s="35"/>
+      <c r="P38" s="35"/>
+      <c r="Q38" s="35"/>
+      <c r="R38" s="35"/>
+      <c r="S38" s="35"/>
+      <c r="T38" s="35"/>
+      <c r="U38" s="35"/>
+      <c r="V38" s="35"/>
+      <c r="W38" s="35"/>
+      <c r="X38" s="38"/>
+      <c r="Y38" s="38"/>
+      <c r="Z38" s="38"/>
+      <c r="AA38" s="38"/>
+      <c r="AB38" s="51"/>
+      <c r="AC38" s="52"/>
+      <c r="AD38" s="52"/>
+      <c r="AE38" s="52"/>
+      <c r="AF38" s="52"/>
+      <c r="AG38" s="52"/>
+      <c r="AH38" s="53"/>
     </row>
     <row r="39" spans="2:34" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="4">
         <f>B38+1</f>
         <v>11</v>
       </c>
-      <c r="C39" s="39" t="s">
+      <c r="C39" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D39" s="40"/>
-      <c r="E39" s="40"/>
-      <c r="F39" s="40"/>
-      <c r="G39" s="40"/>
-      <c r="H39" s="41"/>
-      <c r="I39" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="J39" s="38"/>
-      <c r="K39" s="38"/>
-      <c r="L39" s="38"/>
-      <c r="M39" s="38"/>
-      <c r="N39" s="38"/>
-      <c r="O39" s="38"/>
-      <c r="P39" s="38"/>
-      <c r="Q39" s="38"/>
-      <c r="R39" s="38"/>
-      <c r="S39" s="38"/>
-      <c r="T39" s="38"/>
-      <c r="U39" s="38"/>
-      <c r="V39" s="38"/>
-      <c r="W39" s="38"/>
-      <c r="X39" s="27"/>
-      <c r="Y39" s="27"/>
-      <c r="Z39" s="27"/>
-      <c r="AA39" s="27"/>
-      <c r="AB39" s="27"/>
-      <c r="AC39" s="27"/>
-      <c r="AD39" s="27"/>
-      <c r="AE39" s="27"/>
-      <c r="AF39" s="27"/>
-      <c r="AG39" s="27"/>
-      <c r="AH39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="J39" s="36"/>
+      <c r="K39" s="36"/>
+      <c r="L39" s="36"/>
+      <c r="M39" s="36"/>
+      <c r="N39" s="36"/>
+      <c r="O39" s="36"/>
+      <c r="P39" s="36"/>
+      <c r="Q39" s="36"/>
+      <c r="R39" s="36"/>
+      <c r="S39" s="36"/>
+      <c r="T39" s="36"/>
+      <c r="U39" s="36"/>
+      <c r="V39" s="36"/>
+      <c r="W39" s="36"/>
+      <c r="X39" s="38"/>
+      <c r="Y39" s="38"/>
+      <c r="Z39" s="38"/>
+      <c r="AA39" s="38"/>
+      <c r="AB39" s="38"/>
+      <c r="AC39" s="38"/>
+      <c r="AD39" s="38"/>
+      <c r="AE39" s="38"/>
+      <c r="AF39" s="38"/>
+      <c r="AG39" s="38"/>
+      <c r="AH39" s="38"/>
     </row>
     <row r="40" spans="2:34" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="4">
         <f t="shared" ref="B40:B42" si="2">B39+1</f>
         <v>12</v>
       </c>
-      <c r="C40" s="39" t="s">
+      <c r="C40" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="D40" s="40"/>
-      <c r="E40" s="40"/>
-      <c r="F40" s="40"/>
-      <c r="G40" s="40"/>
-      <c r="H40" s="41"/>
-      <c r="I40" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="J40" s="38"/>
-      <c r="K40" s="38"/>
-      <c r="L40" s="38"/>
-      <c r="M40" s="38"/>
-      <c r="N40" s="38"/>
-      <c r="O40" s="38"/>
-      <c r="P40" s="38"/>
-      <c r="Q40" s="38"/>
-      <c r="R40" s="38"/>
-      <c r="S40" s="38"/>
-      <c r="T40" s="38"/>
-      <c r="U40" s="38"/>
-      <c r="V40" s="38"/>
-      <c r="W40" s="38"/>
-      <c r="X40" s="27"/>
-      <c r="Y40" s="27"/>
-      <c r="Z40" s="27"/>
-      <c r="AA40" s="27"/>
-      <c r="AB40" s="27"/>
-      <c r="AC40" s="27"/>
-      <c r="AD40" s="27"/>
-      <c r="AE40" s="27"/>
-      <c r="AF40" s="27"/>
-      <c r="AG40" s="27"/>
-      <c r="AH40" s="27"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="J40" s="36"/>
+      <c r="K40" s="36"/>
+      <c r="L40" s="36"/>
+      <c r="M40" s="36"/>
+      <c r="N40" s="36"/>
+      <c r="O40" s="36"/>
+      <c r="P40" s="36"/>
+      <c r="Q40" s="36"/>
+      <c r="R40" s="36"/>
+      <c r="S40" s="36"/>
+      <c r="T40" s="36"/>
+      <c r="U40" s="36"/>
+      <c r="V40" s="36"/>
+      <c r="W40" s="36"/>
+      <c r="X40" s="38"/>
+      <c r="Y40" s="38"/>
+      <c r="Z40" s="38"/>
+      <c r="AA40" s="38"/>
+      <c r="AB40" s="38"/>
+      <c r="AC40" s="38"/>
+      <c r="AD40" s="38"/>
+      <c r="AE40" s="38"/>
+      <c r="AF40" s="38"/>
+      <c r="AG40" s="38"/>
+      <c r="AH40" s="38"/>
     </row>
     <row r="41" spans="2:34" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="4">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="C41" s="39" t="s">
+      <c r="C41" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D41" s="40"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="41"/>
-      <c r="I41" s="28" t="s">
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="J41" s="28"/>
-      <c r="K41" s="28"/>
-      <c r="L41" s="28"/>
-      <c r="M41" s="28"/>
-      <c r="N41" s="28"/>
-      <c r="O41" s="28"/>
-      <c r="P41" s="28"/>
-      <c r="Q41" s="28"/>
-      <c r="R41" s="28"/>
-      <c r="S41" s="28"/>
-      <c r="T41" s="28"/>
-      <c r="U41" s="28"/>
-      <c r="V41" s="28"/>
-      <c r="W41" s="28"/>
-      <c r="X41" s="27"/>
-      <c r="Y41" s="27"/>
-      <c r="Z41" s="27"/>
-      <c r="AA41" s="27"/>
-      <c r="AB41" s="27"/>
-      <c r="AC41" s="27"/>
-      <c r="AD41" s="27"/>
-      <c r="AE41" s="27"/>
-      <c r="AF41" s="27"/>
-      <c r="AG41" s="27"/>
-      <c r="AH41" s="27"/>
+      <c r="J41" s="35"/>
+      <c r="K41" s="35"/>
+      <c r="L41" s="35"/>
+      <c r="M41" s="35"/>
+      <c r="N41" s="35"/>
+      <c r="O41" s="35"/>
+      <c r="P41" s="35"/>
+      <c r="Q41" s="35"/>
+      <c r="R41" s="35"/>
+      <c r="S41" s="35"/>
+      <c r="T41" s="35"/>
+      <c r="U41" s="35"/>
+      <c r="V41" s="35"/>
+      <c r="W41" s="35"/>
+      <c r="X41" s="38"/>
+      <c r="Y41" s="38"/>
+      <c r="Z41" s="38"/>
+      <c r="AA41" s="38"/>
+      <c r="AB41" s="38"/>
+      <c r="AC41" s="38"/>
+      <c r="AD41" s="38"/>
+      <c r="AE41" s="38"/>
+      <c r="AF41" s="38"/>
+      <c r="AG41" s="38"/>
+      <c r="AH41" s="38"/>
     </row>
     <row r="42" spans="2:34" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="4">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="C42" s="39" t="s">
+      <c r="C42" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="D42" s="40"/>
-      <c r="E42" s="40"/>
-      <c r="F42" s="40"/>
-      <c r="G42" s="40"/>
-      <c r="H42" s="41"/>
-      <c r="I42" s="28" t="s">
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="J42" s="28"/>
-      <c r="K42" s="28"/>
-      <c r="L42" s="28"/>
-      <c r="M42" s="28"/>
-      <c r="N42" s="28"/>
-      <c r="O42" s="28"/>
-      <c r="P42" s="28"/>
-      <c r="Q42" s="28"/>
-      <c r="R42" s="28"/>
-      <c r="S42" s="28"/>
-      <c r="T42" s="28"/>
-      <c r="U42" s="28"/>
-      <c r="V42" s="28"/>
-      <c r="W42" s="28"/>
-      <c r="X42" s="27"/>
-      <c r="Y42" s="27"/>
-      <c r="Z42" s="27"/>
-      <c r="AA42" s="27"/>
-      <c r="AB42" s="27"/>
-      <c r="AC42" s="27"/>
-      <c r="AD42" s="27"/>
-      <c r="AE42" s="27"/>
-      <c r="AF42" s="27"/>
-      <c r="AG42" s="27"/>
-      <c r="AH42" s="27"/>
+      <c r="J42" s="35"/>
+      <c r="K42" s="35"/>
+      <c r="L42" s="35"/>
+      <c r="M42" s="35"/>
+      <c r="N42" s="35"/>
+      <c r="O42" s="35"/>
+      <c r="P42" s="35"/>
+      <c r="Q42" s="35"/>
+      <c r="R42" s="35"/>
+      <c r="S42" s="35"/>
+      <c r="T42" s="35"/>
+      <c r="U42" s="35"/>
+      <c r="V42" s="35"/>
+      <c r="W42" s="35"/>
+      <c r="X42" s="38"/>
+      <c r="Y42" s="38"/>
+      <c r="Z42" s="38"/>
+      <c r="AA42" s="38"/>
+      <c r="AB42" s="38"/>
+      <c r="AC42" s="38"/>
+      <c r="AD42" s="38"/>
+      <c r="AE42" s="38"/>
+      <c r="AF42" s="38"/>
+      <c r="AG42" s="38"/>
+      <c r="AH42" s="38"/>
     </row>
     <row r="43" spans="2:34" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="4">
         <f>B42+1</f>
         <v>15</v>
       </c>
-      <c r="C43" s="39" t="s">
+      <c r="C43" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="D43" s="40"/>
-      <c r="E43" s="40"/>
-      <c r="F43" s="40"/>
-      <c r="G43" s="40"/>
-      <c r="H43" s="41"/>
-      <c r="I43" s="28" t="s">
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="28"/>
+      <c r="I43" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="J43" s="28"/>
-      <c r="K43" s="28"/>
-      <c r="L43" s="28"/>
-      <c r="M43" s="28"/>
-      <c r="N43" s="28"/>
-      <c r="O43" s="28"/>
-      <c r="P43" s="28"/>
-      <c r="Q43" s="28"/>
-      <c r="R43" s="28"/>
-      <c r="S43" s="28"/>
-      <c r="T43" s="28"/>
-      <c r="U43" s="28"/>
-      <c r="V43" s="28"/>
-      <c r="W43" s="28"/>
-      <c r="X43" s="27"/>
-      <c r="Y43" s="27"/>
-      <c r="Z43" s="27"/>
-      <c r="AA43" s="27"/>
-      <c r="AB43" s="27"/>
-      <c r="AC43" s="27"/>
-      <c r="AD43" s="27"/>
-      <c r="AE43" s="27"/>
-      <c r="AF43" s="27"/>
-      <c r="AG43" s="27"/>
-      <c r="AH43" s="27"/>
+      <c r="J43" s="35"/>
+      <c r="K43" s="35"/>
+      <c r="L43" s="35"/>
+      <c r="M43" s="35"/>
+      <c r="N43" s="35"/>
+      <c r="O43" s="35"/>
+      <c r="P43" s="35"/>
+      <c r="Q43" s="35"/>
+      <c r="R43" s="35"/>
+      <c r="S43" s="35"/>
+      <c r="T43" s="35"/>
+      <c r="U43" s="35"/>
+      <c r="V43" s="35"/>
+      <c r="W43" s="35"/>
+      <c r="X43" s="38"/>
+      <c r="Y43" s="38"/>
+      <c r="Z43" s="38"/>
+      <c r="AA43" s="38"/>
+      <c r="AB43" s="38"/>
+      <c r="AC43" s="38"/>
+      <c r="AD43" s="38"/>
+      <c r="AE43" s="38"/>
+      <c r="AF43" s="38"/>
+      <c r="AG43" s="38"/>
+      <c r="AH43" s="38"/>
     </row>
     <row r="44" spans="2:34" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="4">
         <f>B43+1</f>
         <v>16</v>
       </c>
-      <c r="C44" s="39" t="s">
+      <c r="C44" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="D44" s="40"/>
-      <c r="E44" s="40"/>
-      <c r="F44" s="40"/>
-      <c r="G44" s="40"/>
-      <c r="H44" s="41"/>
-      <c r="I44" s="28" t="s">
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="J44" s="28"/>
-      <c r="K44" s="28"/>
-      <c r="L44" s="28"/>
-      <c r="M44" s="28"/>
-      <c r="N44" s="28"/>
-      <c r="O44" s="28"/>
-      <c r="P44" s="28"/>
-      <c r="Q44" s="28"/>
-      <c r="R44" s="28"/>
-      <c r="S44" s="28"/>
-      <c r="T44" s="28"/>
-      <c r="U44" s="28"/>
-      <c r="V44" s="28"/>
-      <c r="W44" s="28"/>
-      <c r="X44" s="27"/>
-      <c r="Y44" s="27"/>
-      <c r="Z44" s="27"/>
-      <c r="AA44" s="27"/>
-      <c r="AB44" s="27"/>
-      <c r="AC44" s="27"/>
-      <c r="AD44" s="27"/>
-      <c r="AE44" s="27"/>
-      <c r="AF44" s="27"/>
-      <c r="AG44" s="27"/>
-      <c r="AH44" s="27"/>
+      <c r="J44" s="35"/>
+      <c r="K44" s="35"/>
+      <c r="L44" s="35"/>
+      <c r="M44" s="35"/>
+      <c r="N44" s="35"/>
+      <c r="O44" s="35"/>
+      <c r="P44" s="35"/>
+      <c r="Q44" s="35"/>
+      <c r="R44" s="35"/>
+      <c r="S44" s="35"/>
+      <c r="T44" s="35"/>
+      <c r="U44" s="35"/>
+      <c r="V44" s="35"/>
+      <c r="W44" s="35"/>
+      <c r="X44" s="38"/>
+      <c r="Y44" s="38"/>
+      <c r="Z44" s="38"/>
+      <c r="AA44" s="38"/>
+      <c r="AB44" s="38"/>
+      <c r="AC44" s="38"/>
+      <c r="AD44" s="38"/>
+      <c r="AE44" s="38"/>
+      <c r="AF44" s="38"/>
+      <c r="AG44" s="38"/>
+      <c r="AH44" s="38"/>
     </row>
     <row r="45" spans="2:34" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="3"/>
@@ -6726,214 +6966,214 @@
       <c r="B47" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C47" s="43" t="s">
+      <c r="C47" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="D47" s="44"/>
-      <c r="E47" s="44"/>
-      <c r="F47" s="44"/>
-      <c r="G47" s="44"/>
-      <c r="H47" s="45"/>
-      <c r="I47" s="26" t="s">
+      <c r="D47" s="33"/>
+      <c r="E47" s="33"/>
+      <c r="F47" s="33"/>
+      <c r="G47" s="33"/>
+      <c r="H47" s="34"/>
+      <c r="I47" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="J47" s="26"/>
-      <c r="K47" s="26"/>
-      <c r="L47" s="26"/>
-      <c r="M47" s="26"/>
-      <c r="N47" s="26"/>
-      <c r="O47" s="26"/>
-      <c r="P47" s="26"/>
-      <c r="Q47" s="26"/>
-      <c r="R47" s="26"/>
-      <c r="S47" s="26"/>
-      <c r="T47" s="26"/>
-      <c r="U47" s="26"/>
-      <c r="V47" s="26"/>
-      <c r="W47" s="26"/>
-      <c r="X47" s="26" t="s">
+      <c r="J47" s="37"/>
+      <c r="K47" s="37"/>
+      <c r="L47" s="37"/>
+      <c r="M47" s="37"/>
+      <c r="N47" s="37"/>
+      <c r="O47" s="37"/>
+      <c r="P47" s="37"/>
+      <c r="Q47" s="37"/>
+      <c r="R47" s="37"/>
+      <c r="S47" s="37"/>
+      <c r="T47" s="37"/>
+      <c r="U47" s="37"/>
+      <c r="V47" s="37"/>
+      <c r="W47" s="37"/>
+      <c r="X47" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="Y47" s="26"/>
-      <c r="Z47" s="26"/>
-      <c r="AA47" s="26"/>
-      <c r="AB47" s="26" t="s">
+      <c r="Y47" s="37"/>
+      <c r="Z47" s="37"/>
+      <c r="AA47" s="37"/>
+      <c r="AB47" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="AC47" s="26"/>
-      <c r="AD47" s="26"/>
-      <c r="AE47" s="26"/>
-      <c r="AF47" s="26"/>
-      <c r="AG47" s="26"/>
-      <c r="AH47" s="26"/>
+      <c r="AC47" s="37"/>
+      <c r="AD47" s="37"/>
+      <c r="AE47" s="37"/>
+      <c r="AF47" s="37"/>
+      <c r="AG47" s="37"/>
+      <c r="AH47" s="37"/>
     </row>
     <row r="48" spans="2:34" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B48" s="4">
         <f>B44+1</f>
         <v>17</v>
       </c>
-      <c r="C48" s="39" t="s">
+      <c r="C48" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="D48" s="40"/>
-      <c r="E48" s="40"/>
-      <c r="F48" s="40"/>
-      <c r="G48" s="40"/>
-      <c r="H48" s="41"/>
-      <c r="I48" s="28" t="s">
+      <c r="D48" s="27"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="28"/>
+      <c r="I48" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="J48" s="28"/>
-      <c r="K48" s="28"/>
-      <c r="L48" s="28"/>
-      <c r="M48" s="28"/>
-      <c r="N48" s="28"/>
-      <c r="O48" s="28"/>
-      <c r="P48" s="28"/>
-      <c r="Q48" s="28"/>
-      <c r="R48" s="28"/>
-      <c r="S48" s="28"/>
-      <c r="T48" s="28"/>
-      <c r="U48" s="28"/>
-      <c r="V48" s="28"/>
-      <c r="W48" s="28"/>
-      <c r="X48" s="27"/>
-      <c r="Y48" s="27"/>
-      <c r="Z48" s="27"/>
-      <c r="AA48" s="27"/>
-      <c r="AB48" s="27"/>
-      <c r="AC48" s="27"/>
-      <c r="AD48" s="27"/>
-      <c r="AE48" s="27"/>
-      <c r="AF48" s="27"/>
-      <c r="AG48" s="27"/>
-      <c r="AH48" s="27"/>
+      <c r="J48" s="35"/>
+      <c r="K48" s="35"/>
+      <c r="L48" s="35"/>
+      <c r="M48" s="35"/>
+      <c r="N48" s="35"/>
+      <c r="O48" s="35"/>
+      <c r="P48" s="35"/>
+      <c r="Q48" s="35"/>
+      <c r="R48" s="35"/>
+      <c r="S48" s="35"/>
+      <c r="T48" s="35"/>
+      <c r="U48" s="35"/>
+      <c r="V48" s="35"/>
+      <c r="W48" s="35"/>
+      <c r="X48" s="38"/>
+      <c r="Y48" s="38"/>
+      <c r="Z48" s="38"/>
+      <c r="AA48" s="38"/>
+      <c r="AB48" s="38"/>
+      <c r="AC48" s="38"/>
+      <c r="AD48" s="38"/>
+      <c r="AE48" s="38"/>
+      <c r="AF48" s="38"/>
+      <c r="AG48" s="38"/>
+      <c r="AH48" s="38"/>
     </row>
     <row r="49" spans="1:34" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B49" s="4">
         <f>B48+1</f>
         <v>18</v>
       </c>
-      <c r="C49" s="39" t="s">
+      <c r="C49" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="D49" s="40"/>
-      <c r="E49" s="40"/>
-      <c r="F49" s="40"/>
-      <c r="G49" s="40"/>
-      <c r="H49" s="41"/>
-      <c r="I49" s="28" t="s">
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="28"/>
+      <c r="I49" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="J49" s="28"/>
-      <c r="K49" s="28"/>
-      <c r="L49" s="28"/>
-      <c r="M49" s="28"/>
-      <c r="N49" s="28"/>
-      <c r="O49" s="28"/>
-      <c r="P49" s="28"/>
-      <c r="Q49" s="28"/>
-      <c r="R49" s="28"/>
-      <c r="S49" s="28"/>
-      <c r="T49" s="28"/>
-      <c r="U49" s="28"/>
-      <c r="V49" s="28"/>
-      <c r="W49" s="28"/>
-      <c r="X49" s="27"/>
-      <c r="Y49" s="27"/>
-      <c r="Z49" s="27"/>
-      <c r="AA49" s="27"/>
-      <c r="AB49" s="39"/>
-      <c r="AC49" s="40"/>
-      <c r="AD49" s="40"/>
-      <c r="AE49" s="40"/>
-      <c r="AF49" s="40"/>
-      <c r="AG49" s="40"/>
-      <c r="AH49" s="41"/>
+      <c r="J49" s="35"/>
+      <c r="K49" s="35"/>
+      <c r="L49" s="35"/>
+      <c r="M49" s="35"/>
+      <c r="N49" s="35"/>
+      <c r="O49" s="35"/>
+      <c r="P49" s="35"/>
+      <c r="Q49" s="35"/>
+      <c r="R49" s="35"/>
+      <c r="S49" s="35"/>
+      <c r="T49" s="35"/>
+      <c r="U49" s="35"/>
+      <c r="V49" s="35"/>
+      <c r="W49" s="35"/>
+      <c r="X49" s="38"/>
+      <c r="Y49" s="38"/>
+      <c r="Z49" s="38"/>
+      <c r="AA49" s="38"/>
+      <c r="AB49" s="26"/>
+      <c r="AC49" s="27"/>
+      <c r="AD49" s="27"/>
+      <c r="AE49" s="27"/>
+      <c r="AF49" s="27"/>
+      <c r="AG49" s="27"/>
+      <c r="AH49" s="28"/>
     </row>
     <row r="50" spans="1:34" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B50" s="4">
         <f>B49+1</f>
         <v>19</v>
       </c>
-      <c r="C50" s="39" t="s">
+      <c r="C50" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="D50" s="40"/>
-      <c r="E50" s="40"/>
-      <c r="F50" s="40"/>
-      <c r="G50" s="40"/>
-      <c r="H50" s="41"/>
-      <c r="I50" s="28" t="s">
+      <c r="D50" s="27"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="J50" s="28"/>
-      <c r="K50" s="28"/>
-      <c r="L50" s="28"/>
-      <c r="M50" s="28"/>
-      <c r="N50" s="28"/>
-      <c r="O50" s="28"/>
-      <c r="P50" s="28"/>
-      <c r="Q50" s="28"/>
-      <c r="R50" s="28"/>
-      <c r="S50" s="28"/>
-      <c r="T50" s="28"/>
-      <c r="U50" s="28"/>
-      <c r="V50" s="28"/>
-      <c r="W50" s="28"/>
-      <c r="X50" s="27"/>
-      <c r="Y50" s="27"/>
-      <c r="Z50" s="27"/>
-      <c r="AA50" s="27"/>
-      <c r="AB50" s="27"/>
-      <c r="AC50" s="27"/>
-      <c r="AD50" s="27"/>
-      <c r="AE50" s="27"/>
-      <c r="AF50" s="27"/>
-      <c r="AG50" s="27"/>
-      <c r="AH50" s="27"/>
+      <c r="J50" s="35"/>
+      <c r="K50" s="35"/>
+      <c r="L50" s="35"/>
+      <c r="M50" s="35"/>
+      <c r="N50" s="35"/>
+      <c r="O50" s="35"/>
+      <c r="P50" s="35"/>
+      <c r="Q50" s="35"/>
+      <c r="R50" s="35"/>
+      <c r="S50" s="35"/>
+      <c r="T50" s="35"/>
+      <c r="U50" s="35"/>
+      <c r="V50" s="35"/>
+      <c r="W50" s="35"/>
+      <c r="X50" s="38"/>
+      <c r="Y50" s="38"/>
+      <c r="Z50" s="38"/>
+      <c r="AA50" s="38"/>
+      <c r="AB50" s="38"/>
+      <c r="AC50" s="38"/>
+      <c r="AD50" s="38"/>
+      <c r="AE50" s="38"/>
+      <c r="AF50" s="38"/>
+      <c r="AG50" s="38"/>
+      <c r="AH50" s="38"/>
     </row>
     <row r="51" spans="1:34" s="2" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B51" s="4">
         <f>B50+1</f>
         <v>20</v>
       </c>
-      <c r="C51" s="39" t="s">
+      <c r="C51" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="D51" s="40"/>
-      <c r="E51" s="40"/>
-      <c r="F51" s="40"/>
-      <c r="G51" s="40"/>
-      <c r="H51" s="41"/>
-      <c r="I51" s="28" t="s">
+      <c r="D51" s="27"/>
+      <c r="E51" s="27"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="28"/>
+      <c r="I51" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="J51" s="28"/>
-      <c r="K51" s="28"/>
-      <c r="L51" s="28"/>
-      <c r="M51" s="28"/>
-      <c r="N51" s="28"/>
-      <c r="O51" s="28"/>
-      <c r="P51" s="28"/>
-      <c r="Q51" s="28"/>
-      <c r="R51" s="28"/>
-      <c r="S51" s="28"/>
-      <c r="T51" s="28"/>
-      <c r="U51" s="28"/>
-      <c r="V51" s="28"/>
-      <c r="W51" s="28"/>
-      <c r="X51" s="42"/>
-      <c r="Y51" s="42"/>
-      <c r="Z51" s="42"/>
-      <c r="AA51" s="42"/>
-      <c r="AB51" s="39"/>
-      <c r="AC51" s="40"/>
-      <c r="AD51" s="40"/>
-      <c r="AE51" s="40"/>
-      <c r="AF51" s="40"/>
-      <c r="AG51" s="40"/>
-      <c r="AH51" s="41"/>
+      <c r="J51" s="35"/>
+      <c r="K51" s="35"/>
+      <c r="L51" s="35"/>
+      <c r="M51" s="35"/>
+      <c r="N51" s="35"/>
+      <c r="O51" s="35"/>
+      <c r="P51" s="35"/>
+      <c r="Q51" s="35"/>
+      <c r="R51" s="35"/>
+      <c r="S51" s="35"/>
+      <c r="T51" s="35"/>
+      <c r="U51" s="35"/>
+      <c r="V51" s="35"/>
+      <c r="W51" s="35"/>
+      <c r="X51" s="44"/>
+      <c r="Y51" s="44"/>
+      <c r="Z51" s="44"/>
+      <c r="AA51" s="44"/>
+      <c r="AB51" s="26"/>
+      <c r="AC51" s="27"/>
+      <c r="AD51" s="27"/>
+      <c r="AE51" s="27"/>
+      <c r="AF51" s="27"/>
+      <c r="AG51" s="27"/>
+      <c r="AH51" s="28"/>
     </row>
     <row r="52" spans="1:34" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="53" spans="1:34" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -6965,55 +7205,30 @@
     <row r="73" spans="1:1" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="89">
-    <mergeCell ref="C50:H50"/>
-    <mergeCell ref="C51:H51"/>
-    <mergeCell ref="C36:H36"/>
-    <mergeCell ref="C48:H48"/>
-    <mergeCell ref="C39:H39"/>
-    <mergeCell ref="C49:H49"/>
-    <mergeCell ref="C41:H41"/>
-    <mergeCell ref="C38:H38"/>
-    <mergeCell ref="C43:H43"/>
-    <mergeCell ref="C44:H44"/>
-    <mergeCell ref="C37:H37"/>
-    <mergeCell ref="C42:H42"/>
-    <mergeCell ref="C29:H29"/>
-    <mergeCell ref="C33:H33"/>
-    <mergeCell ref="I29:W29"/>
-    <mergeCell ref="C47:H47"/>
-    <mergeCell ref="C40:H40"/>
-    <mergeCell ref="C30:H30"/>
-    <mergeCell ref="C31:H31"/>
-    <mergeCell ref="C34:H34"/>
-    <mergeCell ref="C35:H35"/>
-    <mergeCell ref="I40:W40"/>
-    <mergeCell ref="I47:W47"/>
-    <mergeCell ref="I39:W39"/>
-    <mergeCell ref="I42:W42"/>
-    <mergeCell ref="C26:H26"/>
-    <mergeCell ref="X28:AA28"/>
-    <mergeCell ref="AB28:AH28"/>
-    <mergeCell ref="C27:H27"/>
-    <mergeCell ref="C28:H28"/>
-    <mergeCell ref="X26:AA26"/>
-    <mergeCell ref="I26:W26"/>
-    <mergeCell ref="AB26:AH26"/>
-    <mergeCell ref="I27:W27"/>
-    <mergeCell ref="X27:AA27"/>
-    <mergeCell ref="AB27:AH27"/>
-    <mergeCell ref="AB31:AH31"/>
-    <mergeCell ref="X30:AA30"/>
-    <mergeCell ref="X31:AA31"/>
-    <mergeCell ref="I30:W30"/>
-    <mergeCell ref="X29:AA29"/>
-    <mergeCell ref="AB29:AH29"/>
-    <mergeCell ref="I31:W31"/>
-    <mergeCell ref="AB30:AH30"/>
-    <mergeCell ref="X47:AA47"/>
-    <mergeCell ref="I43:W43"/>
-    <mergeCell ref="X43:AA43"/>
-    <mergeCell ref="X39:AA39"/>
-    <mergeCell ref="I28:W28"/>
+    <mergeCell ref="AB33:AH33"/>
+    <mergeCell ref="X34:AA34"/>
+    <mergeCell ref="I38:W38"/>
+    <mergeCell ref="X38:AA38"/>
+    <mergeCell ref="I33:W33"/>
+    <mergeCell ref="X33:AA33"/>
+    <mergeCell ref="AB35:AH38"/>
+    <mergeCell ref="I35:W35"/>
+    <mergeCell ref="X35:AA35"/>
+    <mergeCell ref="I36:W36"/>
+    <mergeCell ref="X36:AA36"/>
+    <mergeCell ref="I37:W37"/>
+    <mergeCell ref="X37:AA37"/>
+    <mergeCell ref="AB34:AH34"/>
+    <mergeCell ref="I34:W34"/>
+    <mergeCell ref="AB51:AH51"/>
+    <mergeCell ref="I50:W50"/>
+    <mergeCell ref="X50:AA50"/>
+    <mergeCell ref="AB50:AH50"/>
+    <mergeCell ref="AB49:AH49"/>
+    <mergeCell ref="I51:W51"/>
+    <mergeCell ref="X51:AA51"/>
+    <mergeCell ref="I49:W49"/>
+    <mergeCell ref="X49:AA49"/>
     <mergeCell ref="AB39:AH39"/>
     <mergeCell ref="I48:W48"/>
     <mergeCell ref="X48:AA48"/>
@@ -7030,30 +7245,55 @@
     <mergeCell ref="AB43:AH43"/>
     <mergeCell ref="AB42:AH42"/>
     <mergeCell ref="X42:AA42"/>
-    <mergeCell ref="AB51:AH51"/>
-    <mergeCell ref="I50:W50"/>
-    <mergeCell ref="X50:AA50"/>
-    <mergeCell ref="AB50:AH50"/>
-    <mergeCell ref="AB49:AH49"/>
-    <mergeCell ref="I51:W51"/>
-    <mergeCell ref="X51:AA51"/>
-    <mergeCell ref="I49:W49"/>
-    <mergeCell ref="X49:AA49"/>
-    <mergeCell ref="AB33:AH33"/>
-    <mergeCell ref="X34:AA34"/>
-    <mergeCell ref="I38:W38"/>
-    <mergeCell ref="X38:AA38"/>
-    <mergeCell ref="I33:W33"/>
-    <mergeCell ref="X33:AA33"/>
-    <mergeCell ref="AB35:AH38"/>
-    <mergeCell ref="I35:W35"/>
-    <mergeCell ref="X35:AA35"/>
-    <mergeCell ref="I36:W36"/>
-    <mergeCell ref="X36:AA36"/>
-    <mergeCell ref="I37:W37"/>
-    <mergeCell ref="X37:AA37"/>
-    <mergeCell ref="AB34:AH34"/>
-    <mergeCell ref="I34:W34"/>
+    <mergeCell ref="X47:AA47"/>
+    <mergeCell ref="I43:W43"/>
+    <mergeCell ref="X43:AA43"/>
+    <mergeCell ref="X39:AA39"/>
+    <mergeCell ref="I28:W28"/>
+    <mergeCell ref="AB31:AH31"/>
+    <mergeCell ref="X30:AA30"/>
+    <mergeCell ref="X31:AA31"/>
+    <mergeCell ref="I30:W30"/>
+    <mergeCell ref="X29:AA29"/>
+    <mergeCell ref="AB29:AH29"/>
+    <mergeCell ref="I31:W31"/>
+    <mergeCell ref="AB30:AH30"/>
+    <mergeCell ref="C26:H26"/>
+    <mergeCell ref="X28:AA28"/>
+    <mergeCell ref="AB28:AH28"/>
+    <mergeCell ref="C27:H27"/>
+    <mergeCell ref="C28:H28"/>
+    <mergeCell ref="X26:AA26"/>
+    <mergeCell ref="I26:W26"/>
+    <mergeCell ref="AB26:AH26"/>
+    <mergeCell ref="I27:W27"/>
+    <mergeCell ref="X27:AA27"/>
+    <mergeCell ref="AB27:AH27"/>
+    <mergeCell ref="C29:H29"/>
+    <mergeCell ref="C33:H33"/>
+    <mergeCell ref="I29:W29"/>
+    <mergeCell ref="C47:H47"/>
+    <mergeCell ref="C40:H40"/>
+    <mergeCell ref="C30:H30"/>
+    <mergeCell ref="C31:H31"/>
+    <mergeCell ref="C34:H34"/>
+    <mergeCell ref="C35:H35"/>
+    <mergeCell ref="I40:W40"/>
+    <mergeCell ref="I47:W47"/>
+    <mergeCell ref="I39:W39"/>
+    <mergeCell ref="I42:W42"/>
+    <mergeCell ref="C50:H50"/>
+    <mergeCell ref="C51:H51"/>
+    <mergeCell ref="C36:H36"/>
+    <mergeCell ref="C48:H48"/>
+    <mergeCell ref="C39:H39"/>
+    <mergeCell ref="C49:H49"/>
+    <mergeCell ref="C41:H41"/>
+    <mergeCell ref="C38:H38"/>
+    <mergeCell ref="C43:H43"/>
+    <mergeCell ref="C44:H44"/>
+    <mergeCell ref="C37:H37"/>
+    <mergeCell ref="C42:H42"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
@@ -7071,7 +7311,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AI5"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
